--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\RceattleRuns\GOA\Model runs\GOA_18.5.1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/Model runs/GOA_18.5.1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997FF266-27A4-D146-AFE2-82FD30252B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1755" windowWidth="19125" windowHeight="13320" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="1300" yWindow="1760" windowWidth="19120" windowHeight="13320" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -1607,7 +1608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1750,6 +1751,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1785,6 +1803,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1960,14 +1995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2010,7 +2045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2050,7 +2085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2070,7 +2105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2090,7 +2125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2110,7 +2145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2130,7 +2165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2150,7 +2185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2170,7 +2205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2210,7 +2245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2230,7 +2265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2250,7 +2285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2270,7 +2305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2290,7 +2325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2310,7 +2345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
@@ -2330,7 +2365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
@@ -2350,7 +2385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12</v>
       </c>
@@ -2370,7 +2405,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13</v>
       </c>
@@ -2390,7 +2425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2410,7 +2445,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15</v>
       </c>
@@ -2430,7 +2465,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
@@ -2450,7 +2485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
@@ -2470,7 +2505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18</v>
       </c>
@@ -2484,7 +2519,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19</v>
       </c>
@@ -2498,7 +2533,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20</v>
       </c>
@@ -2512,7 +2547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21</v>
       </c>
@@ -2529,7 +2564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>22</v>
       </c>
@@ -2546,7 +2581,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23</v>
       </c>
@@ -2563,7 +2598,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24</v>
       </c>
@@ -2577,7 +2612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2591,7 +2626,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>26</v>
       </c>
@@ -2605,7 +2640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27</v>
       </c>
@@ -2619,7 +2654,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>28</v>
       </c>
@@ -2633,7 +2668,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29</v>
       </c>
@@ -2647,7 +2682,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>30</v>
       </c>
@@ -2661,7 +2696,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>31</v>
       </c>
@@ -2675,7 +2710,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
@@ -2689,7 +2724,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>33</v>
       </c>
@@ -2703,7 +2738,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>34</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>35</v>
       </c>
@@ -2731,7 +2766,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2745,7 +2780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>37</v>
       </c>
@@ -2759,7 +2794,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -2773,7 +2808,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39</v>
       </c>
@@ -2787,7 +2822,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>40</v>
       </c>
@@ -2801,7 +2836,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>41</v>
       </c>
@@ -2815,7 +2850,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>42</v>
       </c>
@@ -2829,7 +2864,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>43</v>
       </c>
@@ -2849,16 +2884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2956,7 +2991,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2994,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3032,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3070,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3108,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3146,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3184,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3222,7 +3257,7 @@
         <v>1.4808579198780299E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3260,7 +3295,7 @@
         <v>1.24042606149913E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3298,7 +3333,7 @@
         <v>0.17748862034622401</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3342,19 +3377,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AI301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+    <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>488</v>
       </c>
@@ -3461,7 +3496,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>514</v>
       </c>
@@ -3508,7 +3543,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>514</v>
       </c>
@@ -3555,7 +3590,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>514</v>
       </c>
@@ -3602,7 +3637,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>514</v>
       </c>
@@ -3649,7 +3684,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -3696,7 +3731,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>514</v>
       </c>
@@ -3743,7 +3778,7 @@
         <v>1.1419999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>514</v>
       </c>
@@ -3790,7 +3825,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>514</v>
       </c>
@@ -3837,7 +3872,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>514</v>
       </c>
@@ -3884,7 +3919,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>514</v>
       </c>
@@ -3931,7 +3966,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>514</v>
       </c>
@@ -3978,7 +4013,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>514</v>
       </c>
@@ -4025,7 +4060,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -4072,7 +4107,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>514</v>
       </c>
@@ -4119,7 +4154,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>514</v>
       </c>
@@ -4166,7 +4201,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>514</v>
       </c>
@@ -4213,7 +4248,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4260,7 +4295,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>514</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>514</v>
       </c>
@@ -4354,7 +4389,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>514</v>
       </c>
@@ -4401,7 +4436,7 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>514</v>
       </c>
@@ -4448,7 +4483,7 @@
         <v>1.7629999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>514</v>
       </c>
@@ -4495,7 +4530,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>514</v>
       </c>
@@ -4542,7 +4577,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>514</v>
       </c>
@@ -4589,7 +4624,7 @@
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>514</v>
       </c>
@@ -4636,7 +4671,7 @@
         <v>1.4330000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>514</v>
       </c>
@@ -4683,7 +4718,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>514</v>
       </c>
@@ -4730,7 +4765,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>514</v>
       </c>
@@ -4777,7 +4812,7 @@
         <v>1.3580000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>514</v>
       </c>
@@ -4824,7 +4859,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>514</v>
       </c>
@@ -4871,7 +4906,7 @@
         <v>1.3779999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>514</v>
       </c>
@@ -4918,7 +4953,7 @@
         <v>1.663</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>514</v>
       </c>
@@ -4965,7 +5000,7 @@
         <v>1.724</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>514</v>
       </c>
@@ -5012,7 +5047,7 @@
         <v>1.522</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>514</v>
       </c>
@@ -5059,7 +5094,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>514</v>
       </c>
@@ -5106,7 +5141,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>514</v>
       </c>
@@ -5153,7 +5188,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>514</v>
       </c>
@@ -5200,7 +5235,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>514</v>
       </c>
@@ -5247,7 +5282,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>514</v>
       </c>
@@ -5294,7 +5329,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>514</v>
       </c>
@@ -5341,7 +5376,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>514</v>
       </c>
@@ -5388,7 +5423,7 @@
         <v>2.1909999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>514</v>
       </c>
@@ -5435,7 +5470,7 @@
         <v>1.913</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>514</v>
       </c>
@@ -5482,7 +5517,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>514</v>
       </c>
@@ -5529,7 +5564,7 @@
         <v>2.1669999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>514</v>
       </c>
@@ -5576,7 +5611,7 @@
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>514</v>
       </c>
@@ -5623,7 +5658,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>514</v>
       </c>
@@ -5670,7 +5705,7 @@
         <v>1.179</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -5717,7 +5752,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>514</v>
       </c>
@@ -5764,7 +5799,7 @@
         <v>1.5089999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -5781,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -5798,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -5815,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>173</v>
       </c>
@@ -5832,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -5849,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -5866,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -5883,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -5930,7 +5965,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -5977,7 +6012,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -6024,7 +6059,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -6071,7 +6106,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>173</v>
       </c>
@@ -6118,7 +6153,7 @@
         <v>0.76384218302016804</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -6165,7 +6200,7 @@
         <v>0.91071245453615701</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -6212,7 +6247,7 @@
         <v>1.05758272605215</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -6259,7 +6294,7 @@
         <v>1.0056714668523901</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -6306,7 +6341,7 @@
         <v>1.1565480030081601</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>173</v>
       </c>
@@ -6353,7 +6388,7 @@
         <v>1.0662231375458899</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -6400,7 +6435,7 @@
         <v>1.1738008393716499</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -6447,7 +6482,7 @@
         <v>1.2813785411973999</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -6494,7 +6529,7 @@
         <v>1.22092725311331</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>173</v>
       </c>
@@ -6541,7 +6576,7 @@
         <v>1.3636399050302901</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -6588,7 +6623,7 @@
         <v>1.5214632853588499</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -6635,7 +6670,7 @@
         <v>1.3041521243854901</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -6682,7 +6717,7 @@
         <v>1.3321028810447899</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -6729,7 +6764,7 @@
         <v>1.43134569706535</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -6776,7 +6811,7 @@
         <v>1.3518107841601701</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -6823,7 +6858,7 @@
         <v>1.3735304516995299</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -6870,7 +6905,7 @@
         <v>1.4243696456536099</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -6917,7 +6952,7 @@
         <v>1.3624920017082001</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -6964,7 +6999,7 @@
         <v>1.45671945807082</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -7011,7 +7046,7 @@
         <v>1.55094691443343</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -7058,7 +7093,7 @@
         <v>1.7391980526536099</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -7105,7 +7140,7 @@
         <v>1.76526288277712</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -7152,7 +7187,7 @@
         <v>1.58394245874609</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -7199,7 +7234,7 @@
         <v>1.3112453252754599</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -7246,7 +7281,7 @@
         <v>1.83699580092954</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -7293,7 +7328,7 @@
         <v>1.8843549707424301</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -7340,7 +7375,7 @@
         <v>1.8960533165270801</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -7387,7 +7422,7 @@
         <v>2.01359548862778</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>173</v>
       </c>
@@ -7434,7 +7469,7 @@
         <v>2.06724214024486</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -7481,7 +7516,7 @@
         <v>2.2269453639754602</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -7528,7 +7563,7 @@
         <v>2.08290743342434</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -7575,7 +7610,7 @@
         <v>1.9388695028732199</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>173</v>
       </c>
@@ -7622,7 +7657,7 @@
         <v>2.26226961165146</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -7669,7 +7704,7 @@
         <v>1.66639580758037</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>173</v>
       </c>
@@ -7716,7 +7751,7 @@
         <v>1.6536599589719501</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -7763,7 +7798,7 @@
         <v>1.1780232658874199</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>173</v>
       </c>
@@ -7810,7 +7845,7 @@
         <v>1.3392193822187399</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -7857,7 +7892,7 @@
         <v>1.3392193822187399</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -7904,7 +7939,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>499</v>
       </c>
@@ -7951,7 +7986,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>499</v>
       </c>
@@ -7998,7 +8033,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>499</v>
       </c>
@@ -8045,7 +8080,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>499</v>
       </c>
@@ -8092,7 +8127,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>499</v>
       </c>
@@ -8139,7 +8174,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -8186,7 +8221,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -8233,7 +8268,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>499</v>
       </c>
@@ -8280,7 +8315,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>499</v>
       </c>
@@ -8327,7 +8362,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>499</v>
       </c>
@@ -8374,7 +8409,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>499</v>
       </c>
@@ -8421,7 +8456,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>499</v>
       </c>
@@ -8468,7 +8503,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>499</v>
       </c>
@@ -8515,7 +8550,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>499</v>
       </c>
@@ -8562,7 +8597,7 @@
         <v>1.19634706174678</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>499</v>
       </c>
@@ -8609,7 +8644,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>499</v>
       </c>
@@ -8656,7 +8691,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>499</v>
       </c>
@@ -8703,7 +8738,7 @@
         <v>1.26353926396508</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>499</v>
       </c>
@@ -8750,7 +8785,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>499</v>
       </c>
@@ -8797,7 +8832,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>499</v>
       </c>
@@ -8844,7 +8879,7 @@
         <v>1.4716211900662</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>499</v>
       </c>
@@ -8891,7 +8926,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>499</v>
       </c>
@@ -8938,7 +8973,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>499</v>
       </c>
@@ -8985,7 +9020,7 @@
         <v>1.4122806730011299</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>499</v>
       </c>
@@ -9032,7 +9067,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>499</v>
       </c>
@@ -9079,7 +9114,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>499</v>
       </c>
@@ -9126,7 +9161,7 @@
         <v>1.4304992241100101</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>499</v>
       </c>
@@ -9173,7 +9208,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>499</v>
       </c>
@@ -9220,7 +9255,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>499</v>
       </c>
@@ -9267,7 +9302,7 @@
         <v>1.2848085989331199</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>499</v>
       </c>
@@ -9314,7 +9349,7 @@
         <v>1.38295916903369</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>499</v>
       </c>
@@ -9361,7 +9396,7 @@
         <v>1.48110973913426</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>499</v>
       </c>
@@ -9408,7 +9443,7 @@
         <v>1.50221168030392</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>499</v>
       </c>
@@ -9455,7 +9490,7 @@
         <v>1.5233136214735801</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>499</v>
       </c>
@@ -9502,7 +9537,7 @@
         <v>1.5249090739551401</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>499</v>
       </c>
@@ -9549,7 +9584,7 @@
         <v>1.5265045264367001</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>499</v>
       </c>
@@ -9596,7 +9631,7 @@
         <v>1.63159815082407</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>499</v>
       </c>
@@ -9643,7 +9678,7 @@
         <v>1.7366917752114299</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>499</v>
       </c>
@@ -9690,7 +9725,7 @@
         <v>1.8783903210742099</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>499</v>
       </c>
@@ -9737,7 +9772,7 @@
         <v>2.0200888669369901</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>499</v>
       </c>
@@ -9784,7 +9819,7 @@
         <v>2.0285176840558301</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>499</v>
       </c>
@@ -9831,7 +9866,7 @@
         <v>2.0369465011746701</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>499</v>
       </c>
@@ -9878,7 +9913,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>499</v>
       </c>
@@ -9925,7 +9960,7 @@
         <v>2.03655889676179</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>499</v>
       </c>
@@ -9972,7 +10007,7 @@
         <v>1.78062151809924</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>499</v>
       </c>
@@ -10019,7 +10054,7 @@
         <v>1.5246841394366999</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>499</v>
       </c>
@@ -10066,7 +10101,7 @@
         <v>1.5142359024437599</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>499</v>
       </c>
@@ -10113,7 +10148,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>499</v>
       </c>
@@ -10160,7 +10195,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>500</v>
       </c>
@@ -10207,7 +10242,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>500</v>
       </c>
@@ -10254,7 +10289,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>500</v>
       </c>
@@ -10301,7 +10336,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>500</v>
       </c>
@@ -10348,7 +10383,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>500</v>
       </c>
@@ -10395,7 +10430,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>500</v>
       </c>
@@ -10442,7 +10477,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>500</v>
       </c>
@@ -10489,7 +10524,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>500</v>
       </c>
@@ -10536,7 +10571,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>500</v>
       </c>
@@ -10583,7 +10618,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>500</v>
       </c>
@@ -10630,7 +10665,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>500</v>
       </c>
@@ -10677,7 +10712,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>500</v>
       </c>
@@ -10724,7 +10759,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>500</v>
       </c>
@@ -10771,7 +10806,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>500</v>
       </c>
@@ -10818,7 +10853,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>500</v>
       </c>
@@ -10865,7 +10900,7 @@
         <v>1.19634706174678</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>500</v>
       </c>
@@ -10912,7 +10947,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>500</v>
       </c>
@@ -10959,7 +10994,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>500</v>
       </c>
@@ -11006,7 +11041,7 @@
         <v>1.26353926396508</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>500</v>
       </c>
@@ -11053,7 +11088,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>500</v>
       </c>
@@ -11100,7 +11135,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>500</v>
       </c>
@@ -11147,7 +11182,7 @@
         <v>1.4716211900662</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>500</v>
       </c>
@@ -11194,7 +11229,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>500</v>
       </c>
@@ -11241,7 +11276,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>500</v>
       </c>
@@ -11288,7 +11323,7 @@
         <v>1.4122806730011299</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>500</v>
       </c>
@@ -11335,7 +11370,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>500</v>
       </c>
@@ -11382,7 +11417,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>500</v>
       </c>
@@ -11429,7 +11464,7 @@
         <v>1.4304992241100101</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>500</v>
       </c>
@@ -11476,7 +11511,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>500</v>
       </c>
@@ -11523,7 +11558,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>500</v>
       </c>
@@ -11570,7 +11605,7 @@
         <v>1.2848085989331199</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>500</v>
       </c>
@@ -11617,7 +11652,7 @@
         <v>1.38295916903369</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>500</v>
       </c>
@@ -11664,7 +11699,7 @@
         <v>1.48110973913426</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>500</v>
       </c>
@@ -11711,7 +11746,7 @@
         <v>1.50221168030392</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>500</v>
       </c>
@@ -11758,7 +11793,7 @@
         <v>1.5233136214735801</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>500</v>
       </c>
@@ -11805,7 +11840,7 @@
         <v>1.5249090739551401</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>500</v>
       </c>
@@ -11852,7 +11887,7 @@
         <v>1.5265045264367001</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>500</v>
       </c>
@@ -11899,7 +11934,7 @@
         <v>1.63159815082407</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>500</v>
       </c>
@@ -11946,7 +11981,7 @@
         <v>1.7366917752114299</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>500</v>
       </c>
@@ -11993,7 +12028,7 @@
         <v>1.8783903210742099</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>500</v>
       </c>
@@ -12040,7 +12075,7 @@
         <v>2.0200888669369901</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>500</v>
       </c>
@@ -12087,7 +12122,7 @@
         <v>2.0285176840558301</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>500</v>
       </c>
@@ -12134,7 +12169,7 @@
         <v>2.0369465011746701</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>500</v>
       </c>
@@ -12181,7 +12216,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>500</v>
       </c>
@@ -12228,7 +12263,7 @@
         <v>2.03655889676179</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>500</v>
       </c>
@@ -12275,7 +12310,7 @@
         <v>1.78062151809924</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>500</v>
       </c>
@@ -12322,7 +12357,7 @@
         <v>1.5246841394366999</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -12369,7 +12404,7 @@
         <v>1.5142359024437599</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>500</v>
       </c>
@@ -12416,7 +12451,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>500</v>
       </c>
@@ -12463,7 +12498,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>501</v>
       </c>
@@ -12510,7 +12545,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>501</v>
       </c>
@@ -12557,7 +12592,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>501</v>
       </c>
@@ -12604,7 +12639,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>501</v>
       </c>
@@ -12651,7 +12686,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>501</v>
       </c>
@@ -12698,7 +12733,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>501</v>
       </c>
@@ -12745,7 +12780,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>501</v>
       </c>
@@ -12792,7 +12827,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>501</v>
       </c>
@@ -12839,7 +12874,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>501</v>
       </c>
@@ -12886,7 +12921,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>501</v>
       </c>
@@ -12933,7 +12968,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>501</v>
       </c>
@@ -12980,7 +13015,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>501</v>
       </c>
@@ -13027,7 +13062,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>501</v>
       </c>
@@ -13074,7 +13109,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>501</v>
       </c>
@@ -13121,7 +13156,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>501</v>
       </c>
@@ -13168,7 +13203,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>501</v>
       </c>
@@ -13215,7 +13250,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>501</v>
       </c>
@@ -13262,7 +13297,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>501</v>
       </c>
@@ -13309,7 +13344,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>501</v>
       </c>
@@ -13356,7 +13391,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>501</v>
       </c>
@@ -13403,7 +13438,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>501</v>
       </c>
@@ -13450,7 +13485,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>501</v>
       </c>
@@ -13497,7 +13532,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>501</v>
       </c>
@@ -13544,7 +13579,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>501</v>
       </c>
@@ -13591,7 +13626,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>501</v>
       </c>
@@ -13638,7 +13673,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>501</v>
       </c>
@@ -13685,7 +13720,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>501</v>
       </c>
@@ -13732,7 +13767,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>501</v>
       </c>
@@ -13779,7 +13814,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>501</v>
       </c>
@@ -13826,7 +13861,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>501</v>
       </c>
@@ -13873,7 +13908,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>501</v>
       </c>
@@ -13920,7 +13955,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>501</v>
       </c>
@@ -13967,7 +14002,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>501</v>
       </c>
@@ -14014,7 +14049,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>501</v>
       </c>
@@ -14061,7 +14096,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>501</v>
       </c>
@@ -14108,7 +14143,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>501</v>
       </c>
@@ -14155,7 +14190,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>501</v>
       </c>
@@ -14202,7 +14237,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>501</v>
       </c>
@@ -14249,7 +14284,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>501</v>
       </c>
@@ -14296,7 +14331,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>501</v>
       </c>
@@ -14343,7 +14378,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>501</v>
       </c>
@@ -14390,7 +14425,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>501</v>
       </c>
@@ -14437,7 +14472,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>501</v>
       </c>
@@ -14484,7 +14519,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>501</v>
       </c>
@@ -14531,7 +14566,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>501</v>
       </c>
@@ -14578,7 +14613,7 @@
         <v>1.6022311506140401</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>501</v>
       </c>
@@ -14625,7 +14660,7 @@
         <v>1.4214014459378299</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>501</v>
       </c>
@@ -14672,7 +14707,7 @@
         <v>1.28789393986553</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -14719,7 +14754,7 @@
         <v>1.1543864337932399</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>501</v>
       </c>
@@ -14766,7 +14801,7 @@
         <v>1.1543864337932399</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -14813,7 +14848,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>502</v>
       </c>
@@ -14860,7 +14895,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>502</v>
       </c>
@@ -14907,7 +14942,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>502</v>
       </c>
@@ -14954,7 +14989,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>502</v>
       </c>
@@ -15001,7 +15036,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>502</v>
       </c>
@@ -15048,7 +15083,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>502</v>
       </c>
@@ -15095,7 +15130,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>502</v>
       </c>
@@ -15142,7 +15177,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>502</v>
       </c>
@@ -15189,7 +15224,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>502</v>
       </c>
@@ -15236,7 +15271,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>502</v>
       </c>
@@ -15283,7 +15318,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>502</v>
       </c>
@@ -15330,7 +15365,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>502</v>
       </c>
@@ -15377,7 +15412,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>502</v>
       </c>
@@ -15424,7 +15459,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>502</v>
       </c>
@@ -15471,7 +15506,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>502</v>
       </c>
@@ -15518,7 +15553,7 @@
         <v>1.157</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>502</v>
       </c>
@@ -15565,7 +15600,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>502</v>
       </c>
@@ -15612,7 +15647,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>502</v>
       </c>
@@ -15659,7 +15694,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>502</v>
       </c>
@@ -15706,7 +15741,7 @@
         <v>1.2210000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>502</v>
       </c>
@@ -15753,7 +15788,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>502</v>
       </c>
@@ -15800,7 +15835,7 @@
         <v>1.5209999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>502</v>
       </c>
@@ -15847,7 +15882,7 @@
         <v>1.304</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>502</v>
       </c>
@@ -15894,7 +15929,7 @@
         <v>1.3320000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>502</v>
       </c>
@@ -15941,7 +15976,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>502</v>
       </c>
@@ -15988,7 +16023,7 @@
         <v>1.3520000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>502</v>
       </c>
@@ -16035,7 +16070,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>502</v>
       </c>
@@ -16082,7 +16117,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>502</v>
       </c>
@@ -16129,7 +16164,7 @@
         <v>1.3620000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>502</v>
       </c>
@@ -16176,7 +16211,7 @@
         <v>1.4570000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>502</v>
       </c>
@@ -16223,7 +16258,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>502</v>
       </c>
@@ -16270,7 +16305,7 @@
         <v>1.7390000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>502</v>
       </c>
@@ -16317,7 +16352,7 @@
         <v>1.7649999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>502</v>
       </c>
@@ -16364,7 +16399,7 @@
         <v>1.5840000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>502</v>
       </c>
@@ -16411,7 +16446,7 @@
         <v>1.3109999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>502</v>
       </c>
@@ -16458,7 +16493,7 @@
         <v>1.837</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>502</v>
       </c>
@@ -16505,7 +16540,7 @@
         <v>1.8839999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>502</v>
       </c>
@@ -16552,7 +16587,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>502</v>
       </c>
@@ -16599,7 +16634,7 @@
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>502</v>
       </c>
@@ -16646,7 +16681,7 @@
         <v>2.0670000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>502</v>
       </c>
@@ -16693,7 +16728,7 @@
         <v>2.2269999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>502</v>
       </c>
@@ -16740,7 +16775,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>502</v>
       </c>
@@ -16787,7 +16822,7 @@
         <v>1.9390000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>502</v>
       </c>
@@ -16834,7 +16869,7 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>502</v>
       </c>
@@ -16881,7 +16916,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>502</v>
       </c>
@@ -16928,7 +16963,7 @@
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>502</v>
       </c>
@@ -16975,7 +17010,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>502</v>
       </c>
@@ -17022,7 +17057,7 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>502</v>
       </c>
@@ -17076,16 +17111,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
@@ -17177,7 +17212,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17215,16 +17250,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
@@ -17316,7 +17351,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -17354,16 +17389,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -17461,7 +17496,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17505,16 +17540,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -17612,7 +17647,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17656,26 +17691,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.5313539999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.0459800000000001</v>
       </c>
@@ -17686,16 +17721,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -17703,7 +17738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -17711,7 +17746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -17719,7 +17754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -17727,7 +17762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -17735,7 +17770,7 @@
         <v>0.1190094</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -17743,7 +17778,7 @@
         <v>-0.46023779999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -17751,7 +17786,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -17759,7 +17794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -17767,7 +17802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -17775,7 +17810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -17783,7 +17818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -17797,16 +17832,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -17814,7 +17849,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1979</v>
       </c>
@@ -17822,7 +17857,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1980</v>
       </c>
@@ -17830,7 +17865,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1981</v>
       </c>
@@ -17838,7 +17873,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1982</v>
       </c>
@@ -17846,7 +17881,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1983</v>
       </c>
@@ -17854,7 +17889,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1984</v>
       </c>
@@ -17862,7 +17897,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1985</v>
       </c>
@@ -17870,7 +17905,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -17878,7 +17913,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -17886,7 +17921,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1988</v>
       </c>
@@ -17894,7 +17929,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -17902,7 +17937,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -17910,7 +17945,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -17918,7 +17953,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -17926,7 +17961,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1993</v>
       </c>
@@ -17934,7 +17969,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1994</v>
       </c>
@@ -17942,7 +17977,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -17950,7 +17985,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1996</v>
       </c>
@@ -17958,7 +17993,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -17966,7 +18001,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -17974,7 +18009,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -17982,7 +18017,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -17990,7 +18025,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -17998,7 +18033,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -18006,7 +18041,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -18014,7 +18049,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -18022,7 +18057,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -18030,7 +18065,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -18038,7 +18073,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -18046,7 +18081,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -18054,7 +18089,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -18062,7 +18097,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -18070,7 +18105,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -18078,7 +18113,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -18086,7 +18121,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -18094,7 +18129,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -18102,7 +18137,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -18110,7 +18145,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -18118,7 +18153,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -18126,7 +18161,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -18140,16 +18175,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -18250,7 +18285,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18291,7 +18326,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18332,7 +18367,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18373,7 +18408,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18414,7 +18449,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18455,7 +18490,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18496,7 +18531,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18537,7 +18572,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18578,7 +18613,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -18619,7 +18654,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -18660,7 +18695,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -18701,7 +18736,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -18742,7 +18777,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -18783,7 +18818,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -18824,7 +18859,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -18865,7 +18900,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -18906,7 +18941,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -18947,7 +18982,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -18988,7 +19023,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -19029,7 +19064,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -19070,7 +19105,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -19111,7 +19146,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -19152,7 +19187,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -19193,7 +19228,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -19234,7 +19269,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -19275,7 +19310,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -19316,7 +19351,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -19357,7 +19392,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -19398,7 +19433,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -19439,7 +19474,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -19480,7 +19515,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -19521,7 +19556,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -19562,7 +19597,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -19603,7 +19638,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -19644,7 +19679,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -19685,7 +19720,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -19726,7 +19761,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -19767,7 +19802,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -19808,7 +19843,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -19849,7 +19884,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -19890,7 +19925,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -19931,7 +19966,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -19978,16 +20013,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -19995,7 +20030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -20003,7 +20038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -20011,7 +20046,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -20019,7 +20054,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -20027,7 +20062,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -20035,7 +20070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -20043,12 +20078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -20056,7 +20091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -20064,7 +20099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -20072,7 +20107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -20080,7 +20115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -20088,7 +20123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -20096,7 +20131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -20104,7 +20139,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -20112,7 +20147,7 @@
         <v>66300000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -20120,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -20134,16 +20169,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>504</v>
       </c>
@@ -20172,7 +20207,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20201,7 +20236,7 @@
         <v>2.27887548328185E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20230,7 +20265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20259,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -20288,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -20317,7 +20352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -20346,7 +20381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -20375,7 +20410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -20404,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -20433,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -20462,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -20491,7 +20526,7 @@
         <v>4.3764198727860998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -20520,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -20549,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -20578,7 +20613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -20607,7 +20642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -20636,7 +20671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -20665,7 +20700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -20694,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -20723,7 +20758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -20752,7 +20787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -20781,7 +20816,7 @@
         <v>2.9783793322335902E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -20810,7 +20845,7 @@
         <v>2.22458600274265E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -20839,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -20868,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -20897,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -20926,7 +20961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -20955,7 +20990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -20984,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -21013,7 +21048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -21042,7 +21077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -21071,7 +21106,7 @@
         <v>8.4123158485358597E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -21100,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -21129,7 +21164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -21158,7 +21193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -21187,7 +21222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -21216,7 +21251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -21245,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -21274,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -21303,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -21332,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -21361,7 +21396,7 @@
         <v>4.5852501620844499E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -21390,7 +21425,7 @@
         <v>2.2257275246047301E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -21419,7 +21454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -21448,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -21477,7 +21512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -21506,7 +21541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -21535,7 +21570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -21564,7 +21599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -21593,7 +21628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -21622,7 +21657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -21651,7 +21686,7 @@
         <v>1.33593207338498E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -21680,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -21709,7 +21744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -21738,7 +21773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -21767,7 +21802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -21796,7 +21831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -21825,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -21854,7 +21889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -21883,7 +21918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -21912,7 +21947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -21941,7 +21976,7 @@
         <v>4.8922812469464902E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -21970,7 +22005,7 @@
         <v>1.2821702806892501E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -21999,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -22028,7 +22063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -22057,7 +22092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -22086,7 +22121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -22115,7 +22150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -22144,7 +22179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -22173,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -22202,7 +22237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -22231,7 +22266,7 @@
         <v>8.7885122496824605E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -22260,7 +22295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -22289,7 +22324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -22318,7 +22353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -22347,7 +22382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -22376,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -22405,7 +22440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -22434,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -22463,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -22492,7 +22527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -22521,7 +22556,7 @@
         <v>3.1071748561354298E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -22550,7 +22585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -22579,7 +22614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -22608,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -22637,7 +22672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -22666,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -22695,7 +22730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -22724,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -22753,7 +22788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -22782,7 +22817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -22811,7 +22846,7 @@
         <v>9.4542228129164008E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -22840,7 +22875,7 @@
         <v>7.5287917150954203E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -22869,7 +22904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -22898,7 +22933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -22927,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -22956,7 +22991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -22985,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -23014,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -23043,7 +23078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -23073,22 +23108,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I101"/>
+  <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1350"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A103" sqref="A103:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>504</v>
       </c>
@@ -23117,7 +23152,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23146,7 +23181,7 @@
         <v>3.60073933887483E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23175,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23204,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -23233,7 +23268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -23262,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -23291,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -23320,7 +23355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -23349,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -23378,7 +23413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -23407,7 +23442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -23436,7 +23471,7 @@
         <v>5.2029653349762303E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -23465,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -23494,7 +23529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -23523,7 +23558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -23552,7 +23587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -23581,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -23610,7 +23645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -23639,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -23668,7 +23703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -23697,7 +23732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -23726,7 +23761,7 @@
         <v>8.4123158485358597E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -23755,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -23784,7 +23819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -23813,7 +23848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -23842,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -23871,7 +23906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -23900,7 +23935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -23929,7 +23964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -23958,7 +23993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -23987,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -24016,7 +24051,7 @@
         <v>6.8109776866891797E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -24045,7 +24080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -24074,7 +24109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -24103,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -24132,7 +24167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -24161,7 +24196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -24190,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -24219,7 +24254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -24248,7 +24283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -24277,7 +24312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -24306,7 +24341,7 @@
         <v>1.33593207338498E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -24335,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -24364,7 +24399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -24393,7 +24428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -24422,7 +24457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -24451,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -24480,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -24509,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -24538,7 +24573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -24567,7 +24602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -24596,7 +24631,7 @@
         <v>6.1744515276357399E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -24625,7 +24660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -24654,7 +24689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -24683,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -24712,7 +24747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -24741,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -24770,7 +24805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -24799,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -24828,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -24857,7 +24892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -24886,7 +24921,7 @@
         <v>8.7885122496824605E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -24915,7 +24950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -24944,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -24973,7 +25008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -25002,7 +25037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -25031,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -25060,7 +25095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -25089,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -25118,7 +25153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -25147,7 +25182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -25176,7 +25211,7 @@
         <v>3.1071748561354298E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -25205,7 +25240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -25234,7 +25269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -25263,7 +25298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -25292,7 +25327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -25321,7 +25356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -25350,7 +25385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -25379,7 +25414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -25408,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -25437,7 +25472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -25466,7 +25501,7 @@
         <v>2.41021460461189E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -25495,7 +25530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -25524,7 +25559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -25553,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -25582,7 +25617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -25611,7 +25646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -25640,7 +25675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -25669,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -25698,7 +25733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -25727,7 +25762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -25756,7 +25791,7 @@
         <v>2.0785681174690301E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -25785,7 +25820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -25814,7 +25849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -25843,7 +25878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -25872,7 +25907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -25901,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -25930,7 +25965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -25959,7 +25994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -25988,7 +26023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -26017,16 +26052,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I960" s="2"/>
     </row>
-    <row r="990" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I990" s="2"/>
     </row>
-    <row r="1320" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="1320" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I1320" s="2"/>
     </row>
-    <row r="1350" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="1350" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I1350" s="2"/>
     </row>
   </sheetData>
@@ -26035,16 +26070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>504</v>
       </c>
@@ -26061,7 +26096,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26078,7 +26113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26095,7 +26130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -26112,7 +26147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -26129,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -26146,7 +26181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -26163,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -26180,7 +26215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -26197,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -26214,7 +26249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -26231,7 +26266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -26248,7 +26283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -26265,7 +26300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -26282,7 +26317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -26299,7 +26334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -26316,7 +26351,7 @@
         <v>8.9352349999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -26333,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -26350,7 +26385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -26367,7 +26402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -26384,7 +26419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -26401,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -26418,7 +26453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -26435,7 +26470,7 @@
         <v>1.5009120000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -26452,7 +26487,7 @@
         <v>2.121984E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -26469,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -26486,7 +26521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -26503,7 +26538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -26520,7 +26555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -26537,7 +26572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -26554,7 +26589,7 @@
         <v>3.4685889999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -26571,7 +26606,7 @@
         <v>2.4102640000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -26588,7 +26623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -26605,7 +26640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -26622,7 +26657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -26639,7 +26674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -26656,7 +26691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -26673,7 +26708,7 @@
         <v>4.1267249999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -26690,7 +26725,7 @@
         <v>2.2313070000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -26707,7 +26742,7 @@
         <v>9.2044339999999992E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -26724,7 +26759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -26741,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -26758,7 +26793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -26775,7 +26810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -26792,7 +26827,7 @@
         <v>4.5468269999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -26809,7 +26844,7 @@
         <v>2.3652309999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -26826,7 +26861,7 @@
         <v>4.181166E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -26843,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -26860,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -26877,7 +26912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -26895,22 +26930,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E50"/>
+  <autoFilter ref="A1:E50" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>504</v>
       </c>
@@ -26927,7 +26962,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26944,7 +26979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26961,7 +26996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -26978,7 +27013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -26995,7 +27030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -27012,7 +27047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -27029,7 +27064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -27046,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -27063,7 +27098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -27080,7 +27115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -27097,7 +27132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -27114,7 +27149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -27131,7 +27166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -27148,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -27165,7 +27200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -27182,7 +27217,7 @@
         <v>8.9352349999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -27199,7 +27234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -27216,7 +27251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -27233,7 +27268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -27250,7 +27285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -27267,7 +27302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -27284,7 +27319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -27301,7 +27336,7 @@
         <v>1.5009120000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -27318,7 +27353,7 @@
         <v>2.121984E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -27335,7 +27370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -27352,7 +27387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -27369,7 +27404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -27386,7 +27421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -27403,7 +27438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -27420,7 +27455,7 @@
         <v>1.2806089999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -27437,7 +27472,7 @@
         <v>4.5982439999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -27454,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -27471,7 +27506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -27488,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -27505,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -27522,7 +27557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -27539,7 +27574,7 @@
         <v>1.9307269999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -27556,7 +27591,7 @@
         <v>2.7579179999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -27573,7 +27608,7 @@
         <v>4.3274840000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -27590,7 +27625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -27607,7 +27642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -27624,7 +27659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -27641,7 +27676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -27658,7 +27693,7 @@
         <v>6.6674710000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -27675,7 +27710,7 @@
         <v>4.9501120000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -27692,7 +27727,7 @@
         <v>1.713315E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -27709,7 +27744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -27726,7 +27761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -27743,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -27761,30 +27796,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E50"/>
+  <autoFilter ref="A1:E50" xr:uid="{00000000-0009-0000-0000-000016000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -27861,7 +27896,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -27929,7 +27964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -27991,7 +28026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -28050,7 +28085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -28109,7 +28144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -28168,7 +28203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -28230,7 +28265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>515</v>
       </c>
@@ -28274,7 +28309,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -28298,7 +28333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -28351,19 +28386,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -28392,7 +28427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -28421,7 +28456,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -28450,7 +28485,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -28479,7 +28514,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -28508,7 +28543,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -28537,7 +28572,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -28566,7 +28601,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -28595,7 +28630,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -28624,7 +28659,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -28653,7 +28688,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -28682,7 +28717,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -28711,7 +28746,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -28740,7 +28775,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -28769,7 +28804,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -28798,7 +28833,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -28827,7 +28862,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -28856,7 +28891,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -28885,7 +28920,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -28914,7 +28949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -28943,7 +28978,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -28972,7 +29007,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -29001,7 +29036,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -29030,7 +29065,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -29059,7 +29094,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -29088,7 +29123,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -29117,7 +29152,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -29146,7 +29181,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -29175,7 +29210,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -29204,7 +29239,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -29233,7 +29268,7 @@
         <v>0.11702665064588851</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -29262,7 +29297,7 @@
         <v>0.15902369917376169</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -29291,7 +29326,7 @@
         <v>0.1459847247625144</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -29320,7 +29355,7 @@
         <v>0.38377936526004708</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -29349,7 +29384,7 @@
         <v>0.29765934120245491</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -29378,7 +29413,7 @@
         <v>0.1201167497000875</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -29407,7 +29442,7 @@
         <v>0.15366059090831741</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -29436,7 +29471,7 @@
         <v>0.1385199581380768</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -29465,7 +29500,7 @@
         <v>0.15245328583382881</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -29494,7 +29529,7 @@
         <v>0.14576403250106171</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -29523,7 +29558,7 @@
         <v>0.21086392026802431</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -29552,7 +29587,7 @@
         <v>0.16016331912790169</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -29581,7 +29616,7 @@
         <v>0.43639305844832282</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -29610,7 +29645,7 @@
         <v>0.33930140605289882</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -29639,7 +29674,7 @@
         <v>0.21265509703399521</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -29668,7 +29703,7 @@
         <v>0.19966868830154649</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -29697,7 +29732,7 @@
         <v>0.39554304062496709</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -29726,7 +29761,7 @@
         <v>0.2054028171550322</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -29755,7 +29790,7 @@
         <v>0.2261395038506139</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -29784,7 +29819,7 @@
         <v>0.2192979492035674</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -29813,7 +29848,7 @@
         <v>0.2592444583053724</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -29842,7 +29877,7 @@
         <v>0.34098987634913858</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -29871,7 +29906,7 @@
         <v>0.25149319884814703</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -29900,7 +29935,7 @@
         <v>0.2351613174256493</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -29929,7 +29964,7 @@
         <v>0.2365971230998265</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -29958,7 +29993,7 @@
         <v>0.24919776459299309</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -29987,7 +30022,7 @@
         <v>0.24628320787047489</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -30016,7 +30051,7 @@
         <v>0.21292837303199741</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -30045,7 +30080,7 @@
         <v>0.215891744062742</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -30074,7 +30109,7 @@
         <v>0.27127811670101998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>175</v>
       </c>
@@ -30103,7 +30138,7 @@
         <v>0.25843248226410448</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -30132,7 +30167,7 @@
         <v>0.21780623842710881</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -30161,7 +30196,7 @@
         <v>0.21849084057177801</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -30190,7 +30225,7 @@
         <v>0.20277940362909561</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -30219,7 +30254,7 @@
         <v>0.18344959857770379</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>175</v>
       </c>
@@ -30248,7 +30283,7 @@
         <v>0.28007729136102238</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -30277,7 +30312,7 @@
         <v>0.18866820266679871</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -30306,7 +30341,7 @@
         <v>0.2144498891800771</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -30335,7 +30370,7 @@
         <v>0.2025159025110336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -30364,7 +30399,7 @@
         <v>0.2354856912079295</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -30393,7 +30428,7 @@
         <v>0.27965917487767572</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>175</v>
       </c>
@@ -30422,7 +30457,7 @@
         <v>0.33028113482572291</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -30451,7 +30486,7 @@
         <v>0.21989846334416019</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -30480,7 +30515,7 @@
         <v>0.40093200404580792</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>176</v>
       </c>
@@ -30509,7 +30544,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>176</v>
       </c>
@@ -30538,7 +30573,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>176</v>
       </c>
@@ -30567,7 +30602,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -30596,7 +30631,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>176</v>
       </c>
@@ -30625,7 +30660,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -30654,7 +30689,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -30683,7 +30718,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -30712,7 +30747,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -30741,7 +30776,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>176</v>
       </c>
@@ -30770,7 +30805,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -30799,7 +30834,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -30828,7 +30863,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -30857,7 +30892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>177</v>
       </c>
@@ -30886,7 +30921,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -30915,7 +30950,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -30944,7 +30979,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -30973,7 +31008,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -31002,7 +31037,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -31031,7 +31066,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -31060,7 +31095,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>515</v>
       </c>
@@ -31089,7 +31124,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>515</v>
       </c>
@@ -31118,7 +31153,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>515</v>
       </c>
@@ -31147,7 +31182,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>515</v>
       </c>
@@ -31176,7 +31211,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -31205,7 +31240,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>515</v>
       </c>
@@ -31234,7 +31269,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>515</v>
       </c>
@@ -31263,7 +31298,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>515</v>
       </c>
@@ -31292,7 +31327,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>515</v>
       </c>
@@ -31327,19 +31362,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -31365,7 +31400,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -31391,7 +31426,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -31417,7 +31452,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -31443,7 +31478,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -31469,7 +31504,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -31495,7 +31530,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -31521,7 +31556,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -31547,7 +31582,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -31573,7 +31608,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -31599,7 +31634,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -31625,7 +31660,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -31651,7 +31686,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -31677,7 +31712,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -31703,7 +31738,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -31729,7 +31764,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -31755,7 +31790,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -31781,7 +31816,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -31807,7 +31842,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -31833,7 +31868,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -31859,7 +31894,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -31885,7 +31920,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -31911,7 +31946,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -31937,7 +31972,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -31963,7 +31998,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -31989,7 +32024,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -32015,7 +32050,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -32041,7 +32076,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -32067,7 +32102,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>187</v>
       </c>
@@ -32093,7 +32128,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -32119,7 +32154,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -32145,7 +32180,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -32171,7 +32206,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -32197,7 +32232,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -32223,7 +32258,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -32249,7 +32284,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -32275,7 +32310,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -32301,7 +32336,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -32327,7 +32362,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -32353,7 +32388,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -32379,7 +32414,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -32405,7 +32440,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>187</v>
       </c>
@@ -32431,7 +32466,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -32457,7 +32492,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>187</v>
       </c>
@@ -32483,7 +32518,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -32509,7 +32544,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -32535,7 +32570,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -32561,7 +32596,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -32587,7 +32622,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -32613,7 +32648,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -32645,19 +32680,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:DU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -33034,7 +33069,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -33090,7 +33125,7 @@
         <v>1.220138466143036E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -33146,7 +33181,7 @@
         <v>2.5847380934020088E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -33202,7 +33237,7 @@
         <v>3.958014030218985E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -33258,7 +33293,7 @@
         <v>6.9182985502200547E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -33314,7 +33349,7 @@
         <v>5.1124604915071238E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -33370,7 +33405,7 @@
         <v>0.14560496679871471</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -33426,7 +33461,7 @@
         <v>4.6034577204338567E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -33482,7 +33517,7 @@
         <v>4.9264384513698523E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -33538,7 +33573,7 @@
         <v>1.3101506744054371E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -33594,7 +33629,7 @@
         <v>5.1511368056881793E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -33650,7 +33685,7 @@
         <v>6.2818790559157997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -33706,7 +33741,7 @@
         <v>1.337610500163534E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -33762,7 +33797,7 @@
         <v>1.3031182550685271E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -33818,7 +33853,7 @@
         <v>1.138104706687825E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -33874,7 +33909,7 @@
         <v>2.5155504727222121E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -33930,7 +33965,7 @@
         <v>1.625793698086889E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -33986,7 +34021,7 @@
         <v>8.7430794920168205E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -34042,7 +34077,7 @@
         <v>5.9841764698429943E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -34098,7 +34133,7 @@
         <v>7.476253612420534E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -34154,7 +34189,7 @@
         <v>2.617080706604373E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -34210,7 +34245,7 @@
         <v>3.0706858546544171E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -34266,7 +34301,7 @@
         <v>2.955646925940276E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -34322,7 +34357,7 @@
         <v>1.7471228919353279E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -34378,7 +34413,7 @@
         <v>4.3094046979857699E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -34434,7 +34469,7 @@
         <v>1.1456748094608281E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -34490,7 +34525,7 @@
         <v>1.0058279538178261E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -34546,7 +34581,7 @@
         <v>4.9416645124801355E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -34602,7 +34637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -34658,7 +34693,7 @@
         <v>7.2315112507869206E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -34714,7 +34749,7 @@
         <v>4.8062965775846407E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -34770,7 +34805,7 @@
         <v>8.9021627538846224E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -34826,7 +34861,7 @@
         <v>0.23255609306345831</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -34882,7 +34917,7 @@
         <v>1.265483973930517E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -34938,7 +34973,7 @@
         <v>2.5986033250396522E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -34994,7 +35029,7 @@
         <v>2.5160058948069681E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -35050,7 +35085,7 @@
         <v>1.484984281739612E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -35106,7 +35141,7 @@
         <v>6.135115451221626E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -35162,7 +35197,7 @@
         <v>3.8481810472327918E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -35218,7 +35253,7 @@
         <v>1.22646813287049E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -35274,7 +35309,7 @@
         <v>2.4609484772389841E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -35330,7 +35365,7 @@
         <v>1.8654605347796791E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -35386,7 +35421,7 @@
         <v>7.9240000000000005E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -35442,7 +35477,7 @@
         <v>0.11385000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -35498,7 +35533,7 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -35554,7 +35589,7 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -35610,7 +35645,7 @@
         <v>1.762E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -35666,7 +35701,7 @@
         <v>0.17163999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -35722,7 +35757,7 @@
         <v>0.11552999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -35778,7 +35813,7 @@
         <v>0.20430999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -35834,7 +35869,7 @@
         <v>0.2434944237918216</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -35890,7 +35925,7 @@
         <v>5.2044609665427503E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -35946,7 +35981,7 @@
         <v>8.4175084175084181E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -36002,7 +36037,7 @@
         <v>4.9069373942470393E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -36058,7 +36093,7 @@
         <v>6.030150753768844E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -36114,7 +36149,7 @@
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -36170,7 +36205,7 @@
         <v>5.4867256637168141E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -36226,7 +36261,7 @@
         <v>5.2364864864864871E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -36282,7 +36317,7 @@
         <v>1.505016722408027E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -36338,7 +36373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -36394,7 +36429,7 @@
         <v>1.1100000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -36450,7 +36485,7 @@
         <v>9.2099999999999994E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -36506,7 +36541,7 @@
         <v>1.201E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -36562,7 +36597,7 @@
         <v>4.45E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -36618,7 +36653,7 @@
         <v>1.3129999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -36674,7 +36709,7 @@
         <v>3.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -36730,7 +36765,7 @@
         <v>2.9499999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>179</v>
       </c>
@@ -36786,7 +36821,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>179</v>
       </c>
@@ -36842,7 +36877,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>179</v>
       </c>
@@ -36898,7 +36933,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>179</v>
       </c>
@@ -36954,7 +36989,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -37010,7 +37045,7 @@
         <v>3.6920000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -37066,7 +37101,7 @@
         <v>7.7270000000000005E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -37122,7 +37157,7 @@
         <v>2.6409999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -37178,7 +37213,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -37234,7 +37269,7 @@
         <v>0.11552999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>179</v>
       </c>
@@ -37290,7 +37325,7 @@
         <v>0.10442</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -37346,7 +37381,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -37402,7 +37437,7 @@
         <v>8.3650000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -37458,7 +37493,7 @@
         <v>8.6019999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -37514,7 +37549,7 @@
         <v>0.11955</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>179</v>
       </c>
@@ -37570,7 +37605,7 @@
         <v>0.11605</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>179</v>
       </c>
@@ -37626,7 +37661,7 @@
         <v>0.13714000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -37682,7 +37717,7 @@
         <v>0.14349000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -37738,7 +37773,7 @@
         <v>9.3909999999999993E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -37794,7 +37829,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -37850,7 +37885,7 @@
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -37906,7 +37941,7 @@
         <v>1.4109999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>179</v>
       </c>
@@ -37962,7 +37997,7 @@
         <v>5.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -38018,7 +38053,7 @@
         <v>7.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -38074,7 +38109,7 @@
         <v>1.328E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -38130,7 +38165,7 @@
         <v>1.1220000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -38186,7 +38221,7 @@
         <v>3.0679999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -38242,7 +38277,7 @@
         <v>4.3860000000000003E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -38298,7 +38333,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -38354,7 +38389,7 @@
         <v>1.225E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -38410,7 +38445,7 @@
         <v>9.1900000000000003E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -38466,7 +38501,7 @@
         <v>2.2440000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -38522,7 +38557,7 @@
         <v>2.4840000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -38578,7 +38613,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -38634,7 +38669,7 @@
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>179</v>
       </c>
@@ -38696,14 +38731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -38756,7 +38791,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -38809,7 +38844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -38868,16 +38903,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -38987,16 +39022,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:DR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>338</v>
       </c>
@@ -39364,7 +39399,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -39732,7 +39767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -40100,7 +40135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -40468,7 +40503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -40836,7 +40871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -41204,7 +41239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -41572,7 +41607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -41940,7 +41975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -42308,7 +42343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -42676,7 +42711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>157</v>
       </c>

--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/Model runs/GOA_18.5.1/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\RceattleRuns\GOA\Model runs\GOA_18.5.1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997FF266-27A4-D146-AFE2-82FD30252B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1760" windowWidth="19120" windowHeight="13320" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="1755" windowWidth="19125" windowHeight="13320" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -1608,7 +1607,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1751,23 +1750,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1803,23 +1785,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1995,14 +1960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +1990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2045,7 +2010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2065,7 +2030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2085,7 +2050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2105,7 +2070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2125,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2145,7 +2110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2165,7 +2130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2185,7 +2150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2205,7 +2170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2225,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2245,7 +2210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2265,7 +2230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2285,7 +2250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2305,7 +2270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2325,7 +2290,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2345,7 +2310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -2365,7 +2330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -2385,7 +2350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -2405,7 +2370,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -2425,7 +2390,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2445,7 +2410,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -2465,7 +2430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -2485,7 +2450,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -2505,7 +2470,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -2519,7 +2484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -2533,7 +2498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -2547,7 +2512,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -2564,7 +2529,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -2581,7 +2546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -2598,7 +2563,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -2612,7 +2577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2626,7 +2591,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -2640,7 +2605,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -2654,7 +2619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -2668,7 +2633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -2682,7 +2647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -2696,7 +2661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -2710,7 +2675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -2724,7 +2689,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -2738,7 +2703,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -2752,7 +2717,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -2766,7 +2731,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2780,7 +2745,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -2794,7 +2759,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -2808,7 +2773,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -2822,7 +2787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -2836,7 +2801,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
@@ -2850,7 +2815,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
@@ -2864,7 +2829,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
@@ -2884,16 +2849,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2991,7 +2956,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3029,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3067,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3105,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3143,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3181,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3219,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3257,7 +3222,7 @@
         <v>1.4808579198780299E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3295,7 +3260,7 @@
         <v>1.24042606149913E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3333,7 +3298,7 @@
         <v>0.17748862034622401</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3377,19 +3342,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI301"/>
   <sheetViews>
     <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>488</v>
       </c>
@@ -3496,7 +3461,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>514</v>
       </c>
@@ -3543,7 +3508,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>514</v>
       </c>
@@ -3590,7 +3555,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>514</v>
       </c>
@@ -3637,7 +3602,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>514</v>
       </c>
@@ -3684,7 +3649,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -3731,7 +3696,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>514</v>
       </c>
@@ -3778,7 +3743,7 @@
         <v>1.1419999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>514</v>
       </c>
@@ -3825,7 +3790,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>514</v>
       </c>
@@ -3872,7 +3837,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>514</v>
       </c>
@@ -3919,7 +3884,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>514</v>
       </c>
@@ -3966,7 +3931,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>514</v>
       </c>
@@ -4013,7 +3978,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>514</v>
       </c>
@@ -4060,7 +4025,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -4107,7 +4072,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>514</v>
       </c>
@@ -4154,7 +4119,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>514</v>
       </c>
@@ -4201,7 +4166,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>514</v>
       </c>
@@ -4248,7 +4213,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4295,7 +4260,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>514</v>
       </c>
@@ -4342,7 +4307,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>514</v>
       </c>
@@ -4389,7 +4354,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>514</v>
       </c>
@@ -4436,7 +4401,7 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>514</v>
       </c>
@@ -4483,7 +4448,7 @@
         <v>1.7629999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>514</v>
       </c>
@@ -4530,7 +4495,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>514</v>
       </c>
@@ -4577,7 +4542,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>514</v>
       </c>
@@ -4624,7 +4589,7 @@
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>514</v>
       </c>
@@ -4671,7 +4636,7 @@
         <v>1.4330000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>514</v>
       </c>
@@ -4718,7 +4683,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>514</v>
       </c>
@@ -4765,7 +4730,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>514</v>
       </c>
@@ -4812,7 +4777,7 @@
         <v>1.3580000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>514</v>
       </c>
@@ -4859,7 +4824,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>514</v>
       </c>
@@ -4906,7 +4871,7 @@
         <v>1.3779999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>514</v>
       </c>
@@ -4953,7 +4918,7 @@
         <v>1.663</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>514</v>
       </c>
@@ -5000,7 +4965,7 @@
         <v>1.724</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>514</v>
       </c>
@@ -5047,7 +5012,7 @@
         <v>1.522</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>514</v>
       </c>
@@ -5094,7 +5059,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>514</v>
       </c>
@@ -5141,7 +5106,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>514</v>
       </c>
@@ -5188,7 +5153,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>514</v>
       </c>
@@ -5235,7 +5200,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>514</v>
       </c>
@@ -5282,7 +5247,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>514</v>
       </c>
@@ -5329,7 +5294,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>514</v>
       </c>
@@ -5376,7 +5341,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>514</v>
       </c>
@@ -5423,7 +5388,7 @@
         <v>2.1909999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>514</v>
       </c>
@@ -5470,7 +5435,7 @@
         <v>1.913</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>514</v>
       </c>
@@ -5517,7 +5482,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>514</v>
       </c>
@@ -5564,7 +5529,7 @@
         <v>2.1669999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>514</v>
       </c>
@@ -5611,7 +5576,7 @@
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>514</v>
       </c>
@@ -5658,7 +5623,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>514</v>
       </c>
@@ -5705,7 +5670,7 @@
         <v>1.179</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -5752,7 +5717,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>514</v>
       </c>
@@ -5799,7 +5764,7 @@
         <v>1.5089999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -5816,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -5833,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -5850,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
@@ -5867,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -5884,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -5901,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -5918,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -5965,7 +5930,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -6012,7 +5977,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -6059,7 +6024,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -6106,7 +6071,7 @@
         <v>1.00997350329575</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>173</v>
       </c>
@@ -6153,7 +6118,7 @@
         <v>0.76384218302016804</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -6200,7 +6165,7 @@
         <v>0.91071245453615701</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -6247,7 +6212,7 @@
         <v>1.05758272605215</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -6294,7 +6259,7 @@
         <v>1.0056714668523901</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -6341,7 +6306,7 @@
         <v>1.1565480030081601</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>173</v>
       </c>
@@ -6388,7 +6353,7 @@
         <v>1.0662231375458899</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -6435,7 +6400,7 @@
         <v>1.1738008393716499</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -6482,7 +6447,7 @@
         <v>1.2813785411973999</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -6529,7 +6494,7 @@
         <v>1.22092725311331</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>173</v>
       </c>
@@ -6576,7 +6541,7 @@
         <v>1.3636399050302901</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -6623,7 +6588,7 @@
         <v>1.5214632853588499</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -6670,7 +6635,7 @@
         <v>1.3041521243854901</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -6717,7 +6682,7 @@
         <v>1.3321028810447899</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -6764,7 +6729,7 @@
         <v>1.43134569706535</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -6811,7 +6776,7 @@
         <v>1.3518107841601701</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -6858,7 +6823,7 @@
         <v>1.3735304516995299</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -6905,7 +6870,7 @@
         <v>1.4243696456536099</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -6952,7 +6917,7 @@
         <v>1.3624920017082001</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -6999,7 +6964,7 @@
         <v>1.45671945807082</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -7046,7 +7011,7 @@
         <v>1.55094691443343</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -7093,7 +7058,7 @@
         <v>1.7391980526536099</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -7140,7 +7105,7 @@
         <v>1.76526288277712</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -7187,7 +7152,7 @@
         <v>1.58394245874609</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -7234,7 +7199,7 @@
         <v>1.3112453252754599</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -7281,7 +7246,7 @@
         <v>1.83699580092954</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -7328,7 +7293,7 @@
         <v>1.8843549707424301</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -7375,7 +7340,7 @@
         <v>1.8960533165270801</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -7422,7 +7387,7 @@
         <v>2.01359548862778</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>173</v>
       </c>
@@ -7469,7 +7434,7 @@
         <v>2.06724214024486</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -7516,7 +7481,7 @@
         <v>2.2269453639754602</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -7563,7 +7528,7 @@
         <v>2.08290743342434</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -7610,7 +7575,7 @@
         <v>1.9388695028732199</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>173</v>
       </c>
@@ -7657,7 +7622,7 @@
         <v>2.26226961165146</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -7704,7 +7669,7 @@
         <v>1.66639580758037</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>173</v>
       </c>
@@ -7751,7 +7716,7 @@
         <v>1.6536599589719501</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -7798,7 +7763,7 @@
         <v>1.1780232658874199</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>173</v>
       </c>
@@ -7845,7 +7810,7 @@
         <v>1.3392193822187399</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -7892,7 +7857,7 @@
         <v>1.3392193822187399</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -7939,7 +7904,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>499</v>
       </c>
@@ -7986,7 +7951,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>499</v>
       </c>
@@ -8033,7 +7998,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>499</v>
       </c>
@@ -8080,7 +8045,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>499</v>
       </c>
@@ -8127,7 +8092,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>499</v>
       </c>
@@ -8174,7 +8139,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -8221,7 +8186,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -8268,7 +8233,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>499</v>
       </c>
@@ -8315,7 +8280,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>499</v>
       </c>
@@ -8362,7 +8327,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>499</v>
       </c>
@@ -8409,7 +8374,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>499</v>
       </c>
@@ -8456,7 +8421,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>499</v>
       </c>
@@ -8503,7 +8468,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>499</v>
       </c>
@@ -8550,7 +8515,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>499</v>
       </c>
@@ -8597,7 +8562,7 @@
         <v>1.19634706174678</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>499</v>
       </c>
@@ -8644,7 +8609,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>499</v>
       </c>
@@ -8691,7 +8656,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>499</v>
       </c>
@@ -8738,7 +8703,7 @@
         <v>1.26353926396508</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>499</v>
       </c>
@@ -8785,7 +8750,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>499</v>
       </c>
@@ -8832,7 +8797,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>499</v>
       </c>
@@ -8879,7 +8844,7 @@
         <v>1.4716211900662</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>499</v>
       </c>
@@ -8926,7 +8891,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>499</v>
       </c>
@@ -8973,7 +8938,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>499</v>
       </c>
@@ -9020,7 +8985,7 @@
         <v>1.4122806730011299</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>499</v>
       </c>
@@ -9067,7 +9032,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>499</v>
       </c>
@@ -9114,7 +9079,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>499</v>
       </c>
@@ -9161,7 +9126,7 @@
         <v>1.4304992241100101</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>499</v>
       </c>
@@ -9208,7 +9173,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>499</v>
       </c>
@@ -9255,7 +9220,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>499</v>
       </c>
@@ -9302,7 +9267,7 @@
         <v>1.2848085989331199</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>499</v>
       </c>
@@ -9349,7 +9314,7 @@
         <v>1.38295916903369</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>499</v>
       </c>
@@ -9396,7 +9361,7 @@
         <v>1.48110973913426</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>499</v>
       </c>
@@ -9443,7 +9408,7 @@
         <v>1.50221168030392</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>499</v>
       </c>
@@ -9490,7 +9455,7 @@
         <v>1.5233136214735801</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>499</v>
       </c>
@@ -9537,7 +9502,7 @@
         <v>1.5249090739551401</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>499</v>
       </c>
@@ -9584,7 +9549,7 @@
         <v>1.5265045264367001</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>499</v>
       </c>
@@ -9631,7 +9596,7 @@
         <v>1.63159815082407</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>499</v>
       </c>
@@ -9678,7 +9643,7 @@
         <v>1.7366917752114299</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>499</v>
       </c>
@@ -9725,7 +9690,7 @@
         <v>1.8783903210742099</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>499</v>
       </c>
@@ -9772,7 +9737,7 @@
         <v>2.0200888669369901</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>499</v>
       </c>
@@ -9819,7 +9784,7 @@
         <v>2.0285176840558301</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>499</v>
       </c>
@@ -9866,7 +9831,7 @@
         <v>2.0369465011746701</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>499</v>
       </c>
@@ -9913,7 +9878,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>499</v>
       </c>
@@ -9960,7 +9925,7 @@
         <v>2.03655889676179</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>499</v>
       </c>
@@ -10007,7 +9972,7 @@
         <v>1.78062151809924</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>499</v>
       </c>
@@ -10054,7 +10019,7 @@
         <v>1.5246841394366999</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>499</v>
       </c>
@@ -10101,7 +10066,7 @@
         <v>1.5142359024437599</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>499</v>
       </c>
@@ -10148,7 +10113,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>499</v>
       </c>
@@ -10195,7 +10160,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>500</v>
       </c>
@@ -10242,7 +10207,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>500</v>
       </c>
@@ -10289,7 +10254,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>500</v>
       </c>
@@ -10336,7 +10301,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>500</v>
       </c>
@@ -10383,7 +10348,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>500</v>
       </c>
@@ -10430,7 +10395,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>500</v>
       </c>
@@ -10477,7 +10442,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>500</v>
       </c>
@@ -10524,7 +10489,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>500</v>
       </c>
@@ -10571,7 +10536,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>500</v>
       </c>
@@ -10618,7 +10583,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>500</v>
       </c>
@@ -10665,7 +10630,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>500</v>
       </c>
@@ -10712,7 +10677,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>500</v>
       </c>
@@ -10759,7 +10724,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>500</v>
       </c>
@@ -10806,7 +10771,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>500</v>
       </c>
@@ -10853,7 +10818,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>500</v>
       </c>
@@ -10900,7 +10865,7 @@
         <v>1.19634706174678</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>500</v>
       </c>
@@ -10947,7 +10912,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>500</v>
       </c>
@@ -10994,7 +10959,7 @@
         <v>1.2299431628559301</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>500</v>
       </c>
@@ -11041,7 +11006,7 @@
         <v>1.26353926396508</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>500</v>
       </c>
@@ -11088,7 +11053,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>500</v>
       </c>
@@ -11135,7 +11100,7 @@
         <v>1.3675802270156401</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>500</v>
       </c>
@@ -11182,7 +11147,7 @@
         <v>1.4716211900662</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>500</v>
       </c>
@@ -11229,7 +11194,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>500</v>
       </c>
@@ -11276,7 +11241,7 @@
         <v>1.4419509315336601</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>500</v>
       </c>
@@ -11323,7 +11288,7 @@
         <v>1.4122806730011299</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>500</v>
       </c>
@@ -11370,7 +11335,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>500</v>
       </c>
@@ -11417,7 +11382,7 @@
         <v>1.4213899485555701</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>500</v>
       </c>
@@ -11464,7 +11429,7 @@
         <v>1.4304992241100101</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>500</v>
       </c>
@@ -11511,7 +11476,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>500</v>
       </c>
@@ -11558,7 +11523,7 @@
         <v>1.35765391152156</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>500</v>
       </c>
@@ -11605,7 +11570,7 @@
         <v>1.2848085989331199</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>500</v>
       </c>
@@ -11652,7 +11617,7 @@
         <v>1.38295916903369</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>500</v>
       </c>
@@ -11699,7 +11664,7 @@
         <v>1.48110973913426</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>500</v>
       </c>
@@ -11746,7 +11711,7 @@
         <v>1.50221168030392</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>500</v>
       </c>
@@ -11793,7 +11758,7 @@
         <v>1.5233136214735801</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>500</v>
       </c>
@@ -11840,7 +11805,7 @@
         <v>1.5249090739551401</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>500</v>
       </c>
@@ -11887,7 +11852,7 @@
         <v>1.5265045264367001</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>500</v>
       </c>
@@ -11934,7 +11899,7 @@
         <v>1.63159815082407</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>500</v>
       </c>
@@ -11981,7 +11946,7 @@
         <v>1.7366917752114299</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>500</v>
       </c>
@@ -12028,7 +11993,7 @@
         <v>1.8783903210742099</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>500</v>
       </c>
@@ -12075,7 +12040,7 @@
         <v>2.0200888669369901</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>500</v>
       </c>
@@ -12122,7 +12087,7 @@
         <v>2.0285176840558301</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>500</v>
       </c>
@@ -12169,7 +12134,7 @@
         <v>2.0369465011746701</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>500</v>
       </c>
@@ -12216,7 +12181,7 @@
         <v>2.0367526989682299</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>500</v>
       </c>
@@ -12263,7 +12228,7 @@
         <v>2.03655889676179</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>500</v>
       </c>
@@ -12310,7 +12275,7 @@
         <v>1.78062151809924</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>500</v>
       </c>
@@ -12357,7 +12322,7 @@
         <v>1.5246841394366999</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -12404,7 +12369,7 @@
         <v>1.5142359024437599</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>500</v>
       </c>
@@ -12451,7 +12416,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>500</v>
       </c>
@@ -12498,7 +12463,7 @@
         <v>1.50378766545083</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>501</v>
       </c>
@@ -12545,7 +12510,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>501</v>
       </c>
@@ -12592,7 +12557,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>501</v>
       </c>
@@ -12639,7 +12604,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>501</v>
       </c>
@@ -12686,7 +12651,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>501</v>
       </c>
@@ -12733,7 +12698,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>501</v>
       </c>
@@ -12780,7 +12745,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>501</v>
       </c>
@@ -12827,7 +12792,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>501</v>
       </c>
@@ -12874,7 +12839,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>501</v>
       </c>
@@ -12921,7 +12886,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>501</v>
       </c>
@@ -12968,7 +12933,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>501</v>
       </c>
@@ -13015,7 +12980,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>501</v>
       </c>
@@ -13062,7 +13027,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>501</v>
       </c>
@@ -13109,7 +13074,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>501</v>
       </c>
@@ -13156,7 +13121,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>501</v>
       </c>
@@ -13203,7 +13168,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>501</v>
       </c>
@@ -13250,7 +13215,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>501</v>
       </c>
@@ -13297,7 +13262,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>501</v>
       </c>
@@ -13344,7 +13309,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>501</v>
       </c>
@@ -13391,7 +13356,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>501</v>
       </c>
@@ -13438,7 +13403,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>501</v>
       </c>
@@ -13485,7 +13450,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>501</v>
       </c>
@@ -13532,7 +13497,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>501</v>
       </c>
@@ -13579,7 +13544,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>501</v>
       </c>
@@ -13626,7 +13591,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>501</v>
       </c>
@@ -13673,7 +13638,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>501</v>
       </c>
@@ -13720,7 +13685,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>501</v>
       </c>
@@ -13767,7 +13732,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>501</v>
       </c>
@@ -13814,7 +13779,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>501</v>
       </c>
@@ -13861,7 +13826,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>501</v>
       </c>
@@ -13908,7 +13873,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>501</v>
       </c>
@@ -13955,7 +13920,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>501</v>
       </c>
@@ -14002,7 +13967,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>501</v>
       </c>
@@ -14049,7 +14014,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>501</v>
       </c>
@@ -14096,7 +14061,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>501</v>
       </c>
@@ -14143,7 +14108,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>501</v>
       </c>
@@ -14190,7 +14155,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>501</v>
       </c>
@@ -14237,7 +14202,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>501</v>
       </c>
@@ -14284,7 +14249,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>501</v>
       </c>
@@ -14331,7 +14296,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>501</v>
       </c>
@@ -14378,7 +14343,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>501</v>
       </c>
@@ -14425,7 +14390,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>501</v>
       </c>
@@ -14472,7 +14437,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>501</v>
       </c>
@@ -14519,7 +14484,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>501</v>
       </c>
@@ -14566,7 +14531,7 @@
         <v>1.78306085529025</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>501</v>
       </c>
@@ -14613,7 +14578,7 @@
         <v>1.6022311506140401</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>501</v>
       </c>
@@ -14660,7 +14625,7 @@
         <v>1.4214014459378299</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>501</v>
       </c>
@@ -14707,7 +14672,7 @@
         <v>1.28789393986553</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -14754,7 +14719,7 @@
         <v>1.1543864337932399</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>501</v>
       </c>
@@ -14801,7 +14766,7 @@
         <v>1.1543864337932399</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -14848,7 +14813,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>502</v>
       </c>
@@ -14895,7 +14860,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>502</v>
       </c>
@@ -14942,7 +14907,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>502</v>
       </c>
@@ -14989,7 +14954,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>502</v>
       </c>
@@ -15036,7 +15001,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>502</v>
       </c>
@@ -15083,7 +15048,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>502</v>
       </c>
@@ -15130,7 +15095,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>502</v>
       </c>
@@ -15177,7 +15142,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>502</v>
       </c>
@@ -15224,7 +15189,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>502</v>
       </c>
@@ -15271,7 +15236,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>502</v>
       </c>
@@ -15318,7 +15283,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>502</v>
       </c>
@@ -15365,7 +15330,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>502</v>
       </c>
@@ -15412,7 +15377,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>502</v>
       </c>
@@ -15459,7 +15424,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>502</v>
       </c>
@@ -15506,7 +15471,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>502</v>
       </c>
@@ -15553,7 +15518,7 @@
         <v>1.157</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>502</v>
       </c>
@@ -15600,7 +15565,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>502</v>
       </c>
@@ -15647,7 +15612,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>502</v>
       </c>
@@ -15694,7 +15659,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>502</v>
       </c>
@@ -15741,7 +15706,7 @@
         <v>1.2210000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>502</v>
       </c>
@@ -15788,7 +15753,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>502</v>
       </c>
@@ -15835,7 +15800,7 @@
         <v>1.5209999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>502</v>
       </c>
@@ -15882,7 +15847,7 @@
         <v>1.304</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>502</v>
       </c>
@@ -15929,7 +15894,7 @@
         <v>1.3320000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>502</v>
       </c>
@@ -15976,7 +15941,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>502</v>
       </c>
@@ -16023,7 +15988,7 @@
         <v>1.3520000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>502</v>
       </c>
@@ -16070,7 +16035,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>502</v>
       </c>
@@ -16117,7 +16082,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>502</v>
       </c>
@@ -16164,7 +16129,7 @@
         <v>1.3620000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>502</v>
       </c>
@@ -16211,7 +16176,7 @@
         <v>1.4570000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>502</v>
       </c>
@@ -16258,7 +16223,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>502</v>
       </c>
@@ -16305,7 +16270,7 @@
         <v>1.7390000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>502</v>
       </c>
@@ -16352,7 +16317,7 @@
         <v>1.7649999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>502</v>
       </c>
@@ -16399,7 +16364,7 @@
         <v>1.5840000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>502</v>
       </c>
@@ -16446,7 +16411,7 @@
         <v>1.3109999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>502</v>
       </c>
@@ -16493,7 +16458,7 @@
         <v>1.837</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>502</v>
       </c>
@@ -16540,7 +16505,7 @@
         <v>1.8839999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>502</v>
       </c>
@@ -16587,7 +16552,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>502</v>
       </c>
@@ -16634,7 +16599,7 @@
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>502</v>
       </c>
@@ -16681,7 +16646,7 @@
         <v>2.0670000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>502</v>
       </c>
@@ -16728,7 +16693,7 @@
         <v>2.2269999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>502</v>
       </c>
@@ -16775,7 +16740,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>502</v>
       </c>
@@ -16822,7 +16787,7 @@
         <v>1.9390000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>502</v>
       </c>
@@ -16869,7 +16834,7 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>502</v>
       </c>
@@ -16916,7 +16881,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>502</v>
       </c>
@@ -16963,7 +16928,7 @@
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>502</v>
       </c>
@@ -17010,7 +16975,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>502</v>
       </c>
@@ -17057,7 +17022,7 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>502</v>
       </c>
@@ -17111,16 +17076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
@@ -17212,7 +17177,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17250,16 +17215,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
@@ -17351,7 +17316,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -17389,16 +17354,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -17496,7 +17461,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17540,16 +17505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -17647,7 +17612,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17691,26 +17656,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.5313539999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.0459800000000001</v>
       </c>
@@ -17721,16 +17686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -17738,7 +17703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -17746,7 +17711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -17754,7 +17719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -17762,7 +17727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -17770,7 +17735,7 @@
         <v>0.1190094</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -17778,7 +17743,7 @@
         <v>-0.46023779999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -17786,7 +17751,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -17794,7 +17759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -17802,7 +17767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -17810,7 +17775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -17818,7 +17783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -17832,16 +17797,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -17849,7 +17814,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1979</v>
       </c>
@@ -17857,7 +17822,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1980</v>
       </c>
@@ -17865,7 +17830,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1981</v>
       </c>
@@ -17873,7 +17838,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1982</v>
       </c>
@@ -17881,7 +17846,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1983</v>
       </c>
@@ -17889,7 +17854,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1984</v>
       </c>
@@ -17897,7 +17862,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1985</v>
       </c>
@@ -17905,7 +17870,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -17913,7 +17878,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -17921,7 +17886,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1988</v>
       </c>
@@ -17929,7 +17894,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -17937,7 +17902,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -17945,7 +17910,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -17953,7 +17918,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -17961,7 +17926,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1993</v>
       </c>
@@ -17969,7 +17934,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1994</v>
       </c>
@@ -17977,7 +17942,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -17985,7 +17950,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1996</v>
       </c>
@@ -17993,7 +17958,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -18001,7 +17966,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -18009,7 +17974,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -18017,7 +17982,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -18025,7 +17990,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -18033,7 +17998,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -18041,7 +18006,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -18049,7 +18014,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -18057,7 +18022,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -18065,7 +18030,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -18073,7 +18038,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -18081,7 +18046,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -18089,7 +18054,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -18097,7 +18062,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -18105,7 +18070,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -18113,7 +18078,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -18121,7 +18086,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -18129,7 +18094,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -18137,7 +18102,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -18145,7 +18110,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -18153,7 +18118,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -18161,7 +18126,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -18175,16 +18140,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -18285,7 +18250,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18326,7 +18291,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18367,7 +18332,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18408,7 +18373,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18449,7 +18414,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18490,7 +18455,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18531,7 +18496,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18572,7 +18537,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18613,7 +18578,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -18654,7 +18619,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -18695,7 +18660,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -18736,7 +18701,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -18777,7 +18742,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -18818,7 +18783,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -18859,7 +18824,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -18900,7 +18865,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -18941,7 +18906,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -18982,7 +18947,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -19023,7 +18988,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -19064,7 +19029,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -19105,7 +19070,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -19146,7 +19111,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -19187,7 +19152,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -19228,7 +19193,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -19269,7 +19234,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -19310,7 +19275,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -19351,7 +19316,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -19392,7 +19357,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -19433,7 +19398,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -19474,7 +19439,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -19515,7 +19480,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -19556,7 +19521,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -19597,7 +19562,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -19638,7 +19603,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -19679,7 +19644,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -19720,7 +19685,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -19761,7 +19726,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -19802,7 +19767,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -19843,7 +19808,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -19884,7 +19849,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -19925,7 +19890,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -19966,7 +19931,7 @@
         <v>178.85</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -20013,16 +19978,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -20030,7 +19995,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -20038,7 +20003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -20046,7 +20011,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -20054,7 +20019,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -20062,7 +20027,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -20070,7 +20035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -20078,12 +20043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -20091,7 +20056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -20099,7 +20064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -20107,7 +20072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -20115,7 +20080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -20123,7 +20088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -20131,7 +20096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -20139,7 +20104,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -20147,7 +20112,7 @@
         <v>66300000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -20155,7 +20120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -20169,16 +20134,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>504</v>
       </c>
@@ -20207,7 +20172,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20236,7 +20201,7 @@
         <v>2.27887548328185E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20265,7 +20230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20294,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -20323,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -20352,7 +20317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -20381,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -20410,7 +20375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -20439,7 +20404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -20468,7 +20433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -20497,7 +20462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -20526,7 +20491,7 @@
         <v>4.3764198727860998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -20555,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -20584,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -20613,7 +20578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -20642,7 +20607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -20671,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -20700,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -20729,7 +20694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -20758,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -20787,7 +20752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -20816,7 +20781,7 @@
         <v>2.9783793322335902E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -20845,7 +20810,7 @@
         <v>2.22458600274265E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -20874,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -20903,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -20932,7 +20897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -20961,7 +20926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -20990,7 +20955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -21019,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -21048,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -21077,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -21106,7 +21071,7 @@
         <v>8.4123158485358597E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -21135,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -21164,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -21193,7 +21158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -21222,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -21251,7 +21216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -21280,7 +21245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -21309,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -21338,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -21367,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -21396,7 +21361,7 @@
         <v>4.5852501620844499E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -21425,7 +21390,7 @@
         <v>2.2257275246047301E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -21454,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -21483,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -21512,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -21541,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -21570,7 +21535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -21599,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -21628,7 +21593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -21657,7 +21622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -21686,7 +21651,7 @@
         <v>1.33593207338498E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -21715,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -21744,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -21773,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -21802,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -21831,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -21860,7 +21825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -21889,7 +21854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -21918,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -21947,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -21976,7 +21941,7 @@
         <v>4.8922812469464902E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -22005,7 +21970,7 @@
         <v>1.2821702806892501E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -22034,7 +21999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -22063,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -22092,7 +22057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -22121,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -22150,7 +22115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -22179,7 +22144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -22208,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -22237,7 +22202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -22266,7 +22231,7 @@
         <v>8.7885122496824605E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -22295,7 +22260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -22324,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -22353,7 +22318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -22382,7 +22347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -22411,7 +22376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -22440,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -22469,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -22498,7 +22463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -22527,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -22556,7 +22521,7 @@
         <v>3.1071748561354298E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -22585,7 +22550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -22614,7 +22579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -22643,7 +22608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -22672,7 +22637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -22701,7 +22666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -22730,7 +22695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -22759,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -22788,7 +22753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -22817,7 +22782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -22846,7 +22811,7 @@
         <v>9.4542228129164008E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -22875,7 +22840,7 @@
         <v>7.5287917150954203E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -22904,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -22933,7 +22898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -22962,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -22991,7 +22956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -23020,7 +22985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -23049,7 +23014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -23078,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -23108,22 +23073,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
+  <autoFilter ref="A1:I101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1350"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A103" sqref="A103:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>504</v>
       </c>
@@ -23152,7 +23117,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23181,7 +23146,7 @@
         <v>3.60073933887483E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23210,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23239,7 +23204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -23268,7 +23233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -23297,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -23326,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -23355,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -23384,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -23413,7 +23378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -23442,7 +23407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -23471,7 +23436,7 @@
         <v>5.2029653349762303E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -23500,7 +23465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -23529,7 +23494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -23558,7 +23523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -23587,7 +23552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -23616,7 +23581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -23645,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -23674,7 +23639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -23703,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -23732,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -23761,7 +23726,7 @@
         <v>8.4123158485358597E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -23790,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -23819,7 +23784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -23848,7 +23813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -23877,7 +23842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -23906,7 +23871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -23935,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -23964,7 +23929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -23993,7 +23958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -24022,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -24051,7 +24016,7 @@
         <v>6.8109776866891797E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -24080,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -24109,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -24138,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -24167,7 +24132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -24196,7 +24161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -24225,7 +24190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -24254,7 +24219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -24283,7 +24248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -24312,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -24341,7 +24306,7 @@
         <v>1.33593207338498E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -24370,7 +24335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -24399,7 +24364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -24428,7 +24393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -24457,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -24486,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -24515,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -24544,7 +24509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -24573,7 +24538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -24602,7 +24567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -24631,7 +24596,7 @@
         <v>6.1744515276357399E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -24660,7 +24625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -24689,7 +24654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -24718,7 +24683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -24747,7 +24712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -24776,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -24805,7 +24770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -24834,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -24863,7 +24828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -24892,7 +24857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -24921,7 +24886,7 @@
         <v>8.7885122496824605E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -24950,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -24979,7 +24944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -25008,7 +24973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -25037,7 +25002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -25066,7 +25031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -25095,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -25124,7 +25089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -25153,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -25182,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -25211,7 +25176,7 @@
         <v>3.1071748561354298E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -25240,7 +25205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -25269,7 +25234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -25298,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -25327,7 +25292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -25356,7 +25321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -25385,7 +25350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -25414,7 +25379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -25443,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -25472,7 +25437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -25501,7 +25466,7 @@
         <v>2.41021460461189E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -25530,7 +25495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -25559,7 +25524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -25588,7 +25553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -25617,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -25646,7 +25611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -25675,7 +25640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -25704,7 +25669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -25733,7 +25698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -25762,7 +25727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -25791,7 +25756,7 @@
         <v>2.0785681174690301E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -25820,7 +25785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -25849,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -25878,7 +25843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -25907,7 +25872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -25936,7 +25901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -25965,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -25994,7 +25959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -26023,7 +25988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -26052,16 +26017,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="960" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I960" s="2"/>
     </row>
-    <row r="990" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="990" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I990" s="2"/>
     </row>
-    <row r="1320" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="1320" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I1320" s="2"/>
     </row>
-    <row r="1350" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="1350" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I1350" s="2"/>
     </row>
   </sheetData>
@@ -26070,16 +26035,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>504</v>
       </c>
@@ -26096,7 +26061,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26113,7 +26078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26130,7 +26095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -26147,7 +26112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -26164,7 +26129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -26181,7 +26146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -26198,7 +26163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -26215,7 +26180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -26232,7 +26197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -26249,7 +26214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -26266,7 +26231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -26283,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -26300,7 +26265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -26317,7 +26282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -26334,7 +26299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -26351,7 +26316,7 @@
         <v>8.9352349999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -26368,7 +26333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -26385,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -26402,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -26419,7 +26384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -26436,7 +26401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -26453,7 +26418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -26470,7 +26435,7 @@
         <v>1.5009120000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -26487,7 +26452,7 @@
         <v>2.121984E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -26504,7 +26469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -26521,7 +26486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -26538,7 +26503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -26555,7 +26520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -26572,7 +26537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -26589,7 +26554,7 @@
         <v>3.4685889999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -26606,7 +26571,7 @@
         <v>2.4102640000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -26623,7 +26588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -26640,7 +26605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -26657,7 +26622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -26674,7 +26639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -26691,7 +26656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -26708,7 +26673,7 @@
         <v>4.1267249999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -26725,7 +26690,7 @@
         <v>2.2313070000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -26742,7 +26707,7 @@
         <v>9.2044339999999992E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -26759,7 +26724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -26776,7 +26741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -26793,7 +26758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -26810,7 +26775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -26827,7 +26792,7 @@
         <v>4.5468269999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -26844,7 +26809,7 @@
         <v>2.3652309999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -26861,7 +26826,7 @@
         <v>4.181166E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -26878,7 +26843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -26895,7 +26860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -26912,7 +26877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -26930,22 +26895,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E50" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
+  <autoFilter ref="A1:E50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>504</v>
       </c>
@@ -26962,7 +26927,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26979,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26996,7 +26961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -27013,7 +26978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -27030,7 +26995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -27047,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -27064,7 +27029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -27081,7 +27046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -27098,7 +27063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -27115,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -27132,7 +27097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -27149,7 +27114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -27166,7 +27131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -27183,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -27200,7 +27165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -27217,7 +27182,7 @@
         <v>8.9352349999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -27234,7 +27199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -27251,7 +27216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -27268,7 +27233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -27285,7 +27250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -27302,7 +27267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -27319,7 +27284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -27336,7 +27301,7 @@
         <v>1.5009120000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -27353,7 +27318,7 @@
         <v>2.121984E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -27370,7 +27335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -27387,7 +27352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -27404,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -27421,7 +27386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -27438,7 +27403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -27455,7 +27420,7 @@
         <v>1.2806089999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -27472,7 +27437,7 @@
         <v>4.5982439999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -27489,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -27506,7 +27471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -27523,7 +27488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -27540,7 +27505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -27557,7 +27522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -27574,7 +27539,7 @@
         <v>1.9307269999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -27591,7 +27556,7 @@
         <v>2.7579179999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -27608,7 +27573,7 @@
         <v>4.3274840000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -27625,7 +27590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -27642,7 +27607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -27659,7 +27624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -27676,7 +27641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -27693,7 +27658,7 @@
         <v>6.6674710000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -27710,7 +27675,7 @@
         <v>4.9501120000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -27727,7 +27692,7 @@
         <v>1.713315E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -27744,7 +27709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -27761,7 +27726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -27778,7 +27743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -27796,30 +27761,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E50" xr:uid="{00000000-0009-0000-0000-000016000000}"/>
+  <autoFilter ref="A1:E50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -27896,7 +27863,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -27964,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -28026,7 +27993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -28085,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -28144,7 +28111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -28203,7 +28170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -28265,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>515</v>
       </c>
@@ -28273,7 +28240,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -28312,10 +28279,10 @@
         <v>7</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -28333,7 +28300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -28386,19 +28353,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -28427,7 +28394,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -28456,7 +28423,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -28485,7 +28452,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -28514,7 +28481,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -28543,7 +28510,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -28572,7 +28539,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -28601,7 +28568,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -28630,7 +28597,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -28659,7 +28626,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -28688,7 +28655,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -28717,7 +28684,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -28746,7 +28713,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -28775,7 +28742,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -28804,7 +28771,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -28833,7 +28800,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -28862,7 +28829,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -28891,7 +28858,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -28920,7 +28887,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -28949,7 +28916,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -28978,7 +28945,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -29007,7 +28974,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -29036,7 +29003,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -29065,7 +29032,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -29094,7 +29061,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -29123,7 +29090,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -29152,7 +29119,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -29181,7 +29148,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -29210,7 +29177,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -29239,7 +29206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -29268,7 +29235,7 @@
         <v>0.11702665064588851</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -29297,7 +29264,7 @@
         <v>0.15902369917376169</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -29326,7 +29293,7 @@
         <v>0.1459847247625144</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -29355,7 +29322,7 @@
         <v>0.38377936526004708</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -29384,7 +29351,7 @@
         <v>0.29765934120245491</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -29413,7 +29380,7 @@
         <v>0.1201167497000875</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -29442,7 +29409,7 @@
         <v>0.15366059090831741</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -29471,7 +29438,7 @@
         <v>0.1385199581380768</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -29500,7 +29467,7 @@
         <v>0.15245328583382881</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -29529,7 +29496,7 @@
         <v>0.14576403250106171</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -29558,7 +29525,7 @@
         <v>0.21086392026802431</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -29587,7 +29554,7 @@
         <v>0.16016331912790169</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -29616,7 +29583,7 @@
         <v>0.43639305844832282</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -29645,7 +29612,7 @@
         <v>0.33930140605289882</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -29674,7 +29641,7 @@
         <v>0.21265509703399521</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -29703,7 +29670,7 @@
         <v>0.19966868830154649</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -29732,7 +29699,7 @@
         <v>0.39554304062496709</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -29761,7 +29728,7 @@
         <v>0.2054028171550322</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -29790,7 +29757,7 @@
         <v>0.2261395038506139</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -29819,7 +29786,7 @@
         <v>0.2192979492035674</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -29848,7 +29815,7 @@
         <v>0.2592444583053724</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -29877,7 +29844,7 @@
         <v>0.34098987634913858</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -29906,7 +29873,7 @@
         <v>0.25149319884814703</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -29935,7 +29902,7 @@
         <v>0.2351613174256493</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -29964,7 +29931,7 @@
         <v>0.2365971230998265</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -29993,7 +29960,7 @@
         <v>0.24919776459299309</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -30022,7 +29989,7 @@
         <v>0.24628320787047489</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -30051,7 +30018,7 @@
         <v>0.21292837303199741</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -30080,7 +30047,7 @@
         <v>0.215891744062742</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -30109,7 +30076,7 @@
         <v>0.27127811670101998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>175</v>
       </c>
@@ -30138,7 +30105,7 @@
         <v>0.25843248226410448</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -30167,7 +30134,7 @@
         <v>0.21780623842710881</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -30196,7 +30163,7 @@
         <v>0.21849084057177801</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -30225,7 +30192,7 @@
         <v>0.20277940362909561</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -30254,7 +30221,7 @@
         <v>0.18344959857770379</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>175</v>
       </c>
@@ -30283,7 +30250,7 @@
         <v>0.28007729136102238</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -30312,7 +30279,7 @@
         <v>0.18866820266679871</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -30341,7 +30308,7 @@
         <v>0.2144498891800771</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -30370,7 +30337,7 @@
         <v>0.2025159025110336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -30399,7 +30366,7 @@
         <v>0.2354856912079295</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -30428,7 +30395,7 @@
         <v>0.27965917487767572</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>175</v>
       </c>
@@ -30457,7 +30424,7 @@
         <v>0.33028113482572291</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -30486,7 +30453,7 @@
         <v>0.21989846334416019</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -30515,7 +30482,7 @@
         <v>0.40093200404580792</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>176</v>
       </c>
@@ -30544,7 +30511,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>176</v>
       </c>
@@ -30573,7 +30540,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>176</v>
       </c>
@@ -30602,7 +30569,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -30631,7 +30598,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>176</v>
       </c>
@@ -30660,7 +30627,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -30689,7 +30656,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -30718,7 +30685,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -30747,7 +30714,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -30776,7 +30743,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>176</v>
       </c>
@@ -30805,7 +30772,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -30834,7 +30801,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -30863,7 +30830,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -30892,7 +30859,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>177</v>
       </c>
@@ -30921,7 +30888,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -30950,7 +30917,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -30979,7 +30946,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -31008,7 +30975,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -31037,7 +31004,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -31066,7 +31033,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -31095,7 +31062,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>515</v>
       </c>
@@ -31124,7 +31091,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>515</v>
       </c>
@@ -31153,7 +31120,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>515</v>
       </c>
@@ -31182,7 +31149,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>515</v>
       </c>
@@ -31211,7 +31178,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -31240,7 +31207,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>515</v>
       </c>
@@ -31269,7 +31236,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>515</v>
       </c>
@@ -31298,7 +31265,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>515</v>
       </c>
@@ -31327,7 +31294,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>515</v>
       </c>
@@ -31362,19 +31329,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -31400,7 +31367,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -31426,7 +31393,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -31452,7 +31419,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -31478,7 +31445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -31504,7 +31471,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -31530,7 +31497,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -31556,7 +31523,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -31582,7 +31549,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -31608,7 +31575,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -31634,7 +31601,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -31660,7 +31627,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -31686,7 +31653,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -31712,7 +31679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -31738,7 +31705,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -31764,7 +31731,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -31790,7 +31757,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -31816,7 +31783,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -31842,7 +31809,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -31868,7 +31835,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -31894,7 +31861,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -31920,7 +31887,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -31946,7 +31913,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -31972,7 +31939,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -31998,7 +31965,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -32024,7 +31991,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -32050,7 +32017,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -32076,7 +32043,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -32102,7 +32069,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>187</v>
       </c>
@@ -32128,7 +32095,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -32154,7 +32121,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -32180,7 +32147,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -32206,7 +32173,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -32232,7 +32199,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -32258,7 +32225,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -32284,7 +32251,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -32310,7 +32277,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -32336,7 +32303,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -32362,7 +32329,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -32388,7 +32355,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -32414,7 +32381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -32440,7 +32407,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>187</v>
       </c>
@@ -32466,7 +32433,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -32492,7 +32459,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>187</v>
       </c>
@@ -32518,7 +32485,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -32544,7 +32511,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -32570,7 +32537,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -32596,7 +32563,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -32622,7 +32589,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -32648,7 +32615,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -32680,19 +32647,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -33069,7 +33036,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -33125,7 +33092,7 @@
         <v>1.220138466143036E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -33181,7 +33148,7 @@
         <v>2.5847380934020088E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -33237,7 +33204,7 @@
         <v>3.958014030218985E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -33293,7 +33260,7 @@
         <v>6.9182985502200547E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -33349,7 +33316,7 @@
         <v>5.1124604915071238E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -33405,7 +33372,7 @@
         <v>0.14560496679871471</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -33461,7 +33428,7 @@
         <v>4.6034577204338567E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -33517,7 +33484,7 @@
         <v>4.9264384513698523E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -33573,7 +33540,7 @@
         <v>1.3101506744054371E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -33629,7 +33596,7 @@
         <v>5.1511368056881793E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -33685,7 +33652,7 @@
         <v>6.2818790559157997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -33741,7 +33708,7 @@
         <v>1.337610500163534E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -33797,7 +33764,7 @@
         <v>1.3031182550685271E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -33853,7 +33820,7 @@
         <v>1.138104706687825E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -33909,7 +33876,7 @@
         <v>2.5155504727222121E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -33965,7 +33932,7 @@
         <v>1.625793698086889E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -34021,7 +33988,7 @@
         <v>8.7430794920168205E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -34077,7 +34044,7 @@
         <v>5.9841764698429943E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -34133,7 +34100,7 @@
         <v>7.476253612420534E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -34189,7 +34156,7 @@
         <v>2.617080706604373E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -34245,7 +34212,7 @@
         <v>3.0706858546544171E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -34301,7 +34268,7 @@
         <v>2.955646925940276E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -34357,7 +34324,7 @@
         <v>1.7471228919353279E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -34413,7 +34380,7 @@
         <v>4.3094046979857699E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -34469,7 +34436,7 @@
         <v>1.1456748094608281E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -34525,7 +34492,7 @@
         <v>1.0058279538178261E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -34581,7 +34548,7 @@
         <v>4.9416645124801355E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -34637,7 +34604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -34693,7 +34660,7 @@
         <v>7.2315112507869206E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -34749,7 +34716,7 @@
         <v>4.8062965775846407E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -34805,7 +34772,7 @@
         <v>8.9021627538846224E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -34861,7 +34828,7 @@
         <v>0.23255609306345831</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -34917,7 +34884,7 @@
         <v>1.265483973930517E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -34973,7 +34940,7 @@
         <v>2.5986033250396522E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -35029,7 +34996,7 @@
         <v>2.5160058948069681E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -35085,7 +35052,7 @@
         <v>1.484984281739612E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -35141,7 +35108,7 @@
         <v>6.135115451221626E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -35197,7 +35164,7 @@
         <v>3.8481810472327918E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -35253,7 +35220,7 @@
         <v>1.22646813287049E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -35309,7 +35276,7 @@
         <v>2.4609484772389841E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -35365,7 +35332,7 @@
         <v>1.8654605347796791E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -35421,7 +35388,7 @@
         <v>7.9240000000000005E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -35477,7 +35444,7 @@
         <v>0.11385000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -35533,7 +35500,7 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -35589,7 +35556,7 @@
         <v>0.23205999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -35645,7 +35612,7 @@
         <v>1.762E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -35701,7 +35668,7 @@
         <v>0.17163999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -35757,7 +35724,7 @@
         <v>0.11552999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -35813,7 +35780,7 @@
         <v>0.20430999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -35869,7 +35836,7 @@
         <v>0.2434944237918216</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -35925,7 +35892,7 @@
         <v>5.2044609665427503E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -35981,7 +35948,7 @@
         <v>8.4175084175084181E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -36037,7 +36004,7 @@
         <v>4.9069373942470393E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -36093,7 +36060,7 @@
         <v>6.030150753768844E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -36149,7 +36116,7 @@
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -36205,7 +36172,7 @@
         <v>5.4867256637168141E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -36261,7 +36228,7 @@
         <v>5.2364864864864871E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -36317,7 +36284,7 @@
         <v>1.505016722408027E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -36373,7 +36340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -36429,7 +36396,7 @@
         <v>1.1100000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -36485,7 +36452,7 @@
         <v>9.2099999999999994E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -36541,7 +36508,7 @@
         <v>1.201E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -36597,7 +36564,7 @@
         <v>4.45E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -36653,7 +36620,7 @@
         <v>1.3129999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -36709,7 +36676,7 @@
         <v>3.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -36765,7 +36732,7 @@
         <v>2.9499999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>179</v>
       </c>
@@ -36821,7 +36788,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>179</v>
       </c>
@@ -36877,7 +36844,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>179</v>
       </c>
@@ -36933,7 +36900,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>179</v>
       </c>
@@ -36989,7 +36956,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -37045,7 +37012,7 @@
         <v>3.6920000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -37101,7 +37068,7 @@
         <v>7.7270000000000005E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -37157,7 +37124,7 @@
         <v>2.6409999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -37213,7 +37180,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -37269,7 +37236,7 @@
         <v>0.11552999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>179</v>
       </c>
@@ -37325,7 +37292,7 @@
         <v>0.10442</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -37381,7 +37348,7 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -37437,7 +37404,7 @@
         <v>8.3650000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -37493,7 +37460,7 @@
         <v>8.6019999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -37549,7 +37516,7 @@
         <v>0.11955</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>179</v>
       </c>
@@ -37605,7 +37572,7 @@
         <v>0.11605</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>179</v>
       </c>
@@ -37661,7 +37628,7 @@
         <v>0.13714000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -37717,7 +37684,7 @@
         <v>0.14349000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -37773,7 +37740,7 @@
         <v>9.3909999999999993E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -37829,7 +37796,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -37885,7 +37852,7 @@
         <v>3.2680000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -37941,7 +37908,7 @@
         <v>1.4109999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>179</v>
       </c>
@@ -37997,7 +37964,7 @@
         <v>5.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -38053,7 +38020,7 @@
         <v>7.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -38109,7 +38076,7 @@
         <v>1.328E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -38165,7 +38132,7 @@
         <v>1.1220000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -38221,7 +38188,7 @@
         <v>3.0679999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -38277,7 +38244,7 @@
         <v>4.3860000000000003E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -38333,7 +38300,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -38389,7 +38356,7 @@
         <v>1.225E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -38445,7 +38412,7 @@
         <v>9.1900000000000003E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -38501,7 +38468,7 @@
         <v>2.2440000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -38557,7 +38524,7 @@
         <v>2.4840000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -38613,7 +38580,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -38669,7 +38636,7 @@
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>179</v>
       </c>
@@ -38731,14 +38698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -38791,7 +38758,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -38844,7 +38811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -38903,16 +38870,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -39022,16 +38989,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>338</v>
       </c>
@@ -39399,7 +39366,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -39767,7 +39734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -40135,7 +40102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -40503,7 +40470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -40871,7 +40838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -41239,7 +41206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -41607,7 +41574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -41975,7 +41942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -42343,7 +42310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -42711,7 +42678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>

--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1755" windowWidth="19125" windowHeight="13320" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="1305" yWindow="1755" windowWidth="19125" windowHeight="13320" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">UobsWtAge!$A$1:$I$221</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">wt!$A$1:$AI$468</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="516">
   <si>
     <t>Number</t>
   </si>
@@ -1608,6 +1608,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1651,12 +1654,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2852,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,36 +2967,38 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.9969682002455541</v>
-      </c>
-      <c r="D2">
-        <v>3.0317997544458998E-3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
+      <c r="C2" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3001,36 +3007,38 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1.3806249742478689E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.97238750051504252</v>
-      </c>
-      <c r="E3">
-        <v>1.380624972303349E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.944522320940219E-11</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
+      <c r="C3" s="3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3039,36 +3047,38 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1.7038104137577791E-8</v>
-      </c>
-      <c r="D4">
-        <v>3.2906405296987587E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.93418715532981655</v>
-      </c>
-      <c r="F4">
-        <v>3.2906405296987587E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.703810414976909E-8</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3077,36 +3087,38 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1.4293123082035599E-15</v>
-      </c>
-      <c r="D5">
-        <v>1.07835614494854E-6</v>
-      </c>
-      <c r="E5">
-        <v>5.7122751520844207E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.88575234024602023</v>
-      </c>
-      <c r="G5">
-        <v>5.7122751520844207E-2</v>
-      </c>
-      <c r="H5">
-        <v>1.0783561449345701E-6</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3115,36 +3127,38 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1.741496600433211E-22</v>
-      </c>
-      <c r="D6">
-        <v>2.2895550578474109E-12</v>
-      </c>
-      <c r="E6">
-        <v>1.6563697422036409E-5</v>
-      </c>
-      <c r="F6">
-        <v>8.3222467499376743E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.83352193760182336</v>
-      </c>
-      <c r="H6">
-        <v>8.3222467499376743E-2</v>
-      </c>
-      <c r="I6">
-        <v>1.6563697422089512E-5</v>
-      </c>
-      <c r="J6">
-        <v>2.289501921382001E-12</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3153,36 +3167,38 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>7.9187390152442467E-29</v>
-      </c>
-      <c r="D7">
-        <v>3.433136200350019E-18</v>
-      </c>
-      <c r="E7">
-        <v>3.7519453381043891E-10</v>
-      </c>
-      <c r="F7">
-        <v>1.107903280981359E-4</v>
-      </c>
-      <c r="G7">
-        <v>0.109047594152773</v>
-      </c>
-      <c r="H7">
-        <v>0.78168323028786868</v>
-      </c>
-      <c r="I7">
-        <v>0.109047594152773</v>
-      </c>
-      <c r="J7">
-        <v>1.107903280981309E-4</v>
-      </c>
-      <c r="K7">
-        <v>3.7519454210155278E-10</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.109</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.78169999999999995</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.109</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3191,36 +3207,38 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1.6300599418526799E-34</v>
-      </c>
-      <c r="D8">
-        <v>9.4520672140326682E-24</v>
-      </c>
-      <c r="E8">
-        <v>4.207674204839399E-15</v>
-      </c>
-      <c r="F8">
-        <v>1.48082733358305E-8</v>
-      </c>
-      <c r="G8">
-        <v>4.4015823193820688E-4</v>
-      </c>
-      <c r="H8">
-        <v>0.13333152388480299</v>
-      </c>
-      <c r="I8">
-        <v>0.73245645228550194</v>
-      </c>
-      <c r="J8">
-        <v>0.13333167437056601</v>
-      </c>
-      <c r="K8">
-        <v>4.401616103341709E-4</v>
-      </c>
-      <c r="L8">
-        <v>1.4808579198780299E-8</v>
-      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.1333</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.73246</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.13333</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3229,36 +3247,38 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1.41972529467765E-39</v>
-      </c>
-      <c r="D9">
-        <v>6.6985971715041607E-29</v>
-      </c>
-      <c r="E9">
-        <v>5.5800560405513414E-20</v>
-      </c>
-      <c r="F9">
-        <v>8.3314484235959208E-13</v>
-      </c>
-      <c r="G9">
-        <v>2.2940529583165299E-7</v>
-      </c>
-      <c r="H9">
-        <v>1.24018878835273E-3</v>
-      </c>
-      <c r="I9">
-        <v>0.15535344944597199</v>
-      </c>
-      <c r="J9">
-        <v>0.68681225685207514</v>
-      </c>
-      <c r="K9">
-        <v>0.15535344944597199</v>
-      </c>
-      <c r="L9">
-        <v>1.24042606149913E-3</v>
-      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.15534999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.68681000000000003</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.15534999999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.24E-3</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3267,36 +3287,38 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>4.5096179254844192E-44</v>
-      </c>
-      <c r="D10">
-        <v>1.31733040922069E-33</v>
-      </c>
-      <c r="E10">
-        <v>1.28507558995609E-24</v>
-      </c>
-      <c r="F10">
-        <v>4.2232365070396589E-17</v>
-      </c>
-      <c r="G10">
-        <v>4.7452560994191493E-11</v>
-      </c>
-      <c r="H10">
-        <v>1.87390301224942E-6</v>
-      </c>
-      <c r="I10">
-        <v>2.758766177510369E-3</v>
-      </c>
-      <c r="J10">
-        <v>0.17472798019204799</v>
-      </c>
-      <c r="K10">
-        <v>0.64502275933375286</v>
-      </c>
-      <c r="L10">
-        <v>0.17748862034622401</v>
-      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.17473</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.64502000000000004</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.17749000000000001</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3305,36 +3327,38 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>4.4416417156481803E-48</v>
-      </c>
-      <c r="D11">
-        <v>6.94268320490274E-38</v>
-      </c>
-      <c r="E11">
-        <v>5.963488660878E-29</v>
-      </c>
-      <c r="F11">
-        <v>2.8305109681877299E-21</v>
-      </c>
-      <c r="G11">
-        <v>7.4879711790216696E-15</v>
-      </c>
-      <c r="H11">
-        <v>1.1201308022964401E-9</v>
-      </c>
-      <c r="I11">
-        <v>9.7304269226305297E-6</v>
-      </c>
-      <c r="J11">
-        <v>5.1851862693220903E-3</v>
-      </c>
-      <c r="K11">
-        <v>0.19130423882355299</v>
-      </c>
-      <c r="L11">
-        <v>0.803500843360064</v>
-      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.1913</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27770,8 +27794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27784,6 +27808,12 @@
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -28090,7 +28120,7 @@
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>-13</v>
@@ -28149,7 +28179,7 @@
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>-13</v>
@@ -28187,16 +28217,13 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -38699,9 +38726,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -38862,6 +38891,59 @@
       </c>
       <c r="Q3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1755" windowWidth="17865" windowHeight="5745" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="1305" yWindow="1755" windowWidth="17865" windowHeight="5745" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="519">
   <si>
     <t>Number</t>
   </si>
@@ -1060,9 +1060,6 @@
     <t>Age30</t>
   </si>
   <si>
-    <t>ALK_name</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -1601,6 +1598,15 @@
   </si>
   <si>
     <t>Cindex</t>
+  </si>
+  <si>
+    <t>Age_transition_index</t>
+  </si>
+  <si>
+    <t>Age_transition_name</t>
+  </si>
+  <si>
+    <t>pop_age_transition_index</t>
   </si>
 </sst>
 </file>
@@ -2866,97 +2872,97 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -3379,10 +3385,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -3457,36 +3463,36 @@
         <v>326</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3533,7 +3539,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3580,7 +3586,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3627,7 +3633,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3674,7 +3680,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3721,7 +3727,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3768,7 +3774,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3815,7 +3821,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3862,7 +3868,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3909,7 +3915,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3956,7 +3962,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4003,7 +4009,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4144,7 +4150,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4191,7 +4197,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4238,7 +4244,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4285,7 +4291,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4332,7 +4338,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4379,7 +4385,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4426,7 +4432,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4473,7 +4479,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4520,7 +4526,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4567,7 +4573,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4614,7 +4620,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4661,7 +4667,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4708,7 +4714,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4755,7 +4761,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4802,7 +4808,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4849,7 +4855,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4896,7 +4902,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4943,7 +4949,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4990,7 +4996,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5037,7 +5043,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5084,7 +5090,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5131,7 +5137,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5178,7 +5184,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5225,7 +5231,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5272,7 +5278,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5319,7 +5325,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5366,7 +5372,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5413,7 +5419,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5460,7 +5466,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5507,7 +5513,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5554,7 +5560,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5601,7 +5607,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5648,7 +5654,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5695,7 +5701,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5742,7 +5748,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -15001,7 +15007,7 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B247">
         <v>6</v>
@@ -15048,7 +15054,7 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B248">
         <v>6</v>
@@ -15095,7 +15101,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B249">
         <v>6</v>
@@ -15142,7 +15148,7 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B250">
         <v>6</v>
@@ -15189,7 +15195,7 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B251">
         <v>6</v>
@@ -15236,7 +15242,7 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B252">
         <v>6</v>
@@ -15283,7 +15289,7 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -15330,7 +15336,7 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B254">
         <v>6</v>
@@ -15377,7 +15383,7 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B255">
         <v>6</v>
@@ -15424,7 +15430,7 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B256">
         <v>6</v>
@@ -15471,7 +15477,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B257">
         <v>6</v>
@@ -15518,7 +15524,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B258">
         <v>6</v>
@@ -15565,7 +15571,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B259">
         <v>6</v>
@@ -15612,7 +15618,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B260">
         <v>6</v>
@@ -15659,7 +15665,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B261">
         <v>6</v>
@@ -15706,7 +15712,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -15753,7 +15759,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -15800,7 +15806,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -15847,7 +15853,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B265">
         <v>6</v>
@@ -15894,7 +15900,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B266">
         <v>6</v>
@@ -15941,7 +15947,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B267">
         <v>6</v>
@@ -15988,7 +15994,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B268">
         <v>6</v>
@@ -16035,7 +16041,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B269">
         <v>6</v>
@@ -16082,7 +16088,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B270">
         <v>6</v>
@@ -16129,7 +16135,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B271">
         <v>6</v>
@@ -16176,7 +16182,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -16223,7 +16229,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -16270,7 +16276,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B274">
         <v>6</v>
@@ -16317,7 +16323,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -16364,7 +16370,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -16411,7 +16417,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -16458,7 +16464,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -16505,7 +16511,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -16552,7 +16558,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -16599,7 +16605,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -16646,7 +16652,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -16693,7 +16699,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -16740,7 +16746,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -16787,7 +16793,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B285">
         <v>6</v>
@@ -16834,7 +16840,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -16881,7 +16887,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -16928,7 +16934,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B288">
         <v>6</v>
@@ -16975,7 +16981,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B289">
         <v>6</v>
@@ -17022,7 +17028,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B290">
         <v>6</v>
@@ -17069,7 +17075,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -17116,7 +17122,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -17163,7 +17169,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -17210,7 +17216,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B294">
         <v>6</v>
@@ -17257,7 +17263,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B295">
         <v>6</v>
@@ -17915,10 +17921,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17965,7 +17971,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -18060,7 +18066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -18483,31 +18489,31 @@
         <v>326</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -20241,8 +20247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20350,7 +20356,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>518</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -20390,12 +20396,12 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -20415,22 +20421,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>179</v>
@@ -20439,7 +20445,7 @@
         <v>187</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -23360,22 +23366,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" t="s">
         <v>498</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>499</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>500</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>501</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>502</v>
-      </c>
-      <c r="F1" t="s">
-        <v>503</v>
       </c>
       <c r="G1" t="s">
         <v>179</v>
@@ -23384,7 +23390,7 @@
         <v>187</v>
       </c>
       <c r="I1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -26309,7 +26315,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AA1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26375,7 +26381,7 @@
         <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>102</v>
@@ -26384,7 +26390,7 @@
         <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>94</v>
@@ -26393,7 +26399,7 @@
         <v>90</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>167</v>
@@ -26411,7 +26417,7 @@
         <v>171</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -26815,7 +26821,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -26984,7 +26990,7 @@
         <v>183</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -29654,7 +29660,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -29683,7 +29689,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -29712,7 +29718,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -29741,7 +29747,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -29770,7 +29776,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -29799,7 +29805,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -29828,7 +29834,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -29857,7 +29863,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -29886,7 +29892,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -29954,7 +29960,7 @@
         <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -39796,18 +39802,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>517</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -39816,358 +39820,358 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.25">
